--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,33 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E33A44-A1F1-4444-9697-BE318BA10D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84B3D2-7732-4536-B60B-6D8DD5B95BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32685" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{C257811F-7D87-40D1-8DDB-E1E2C9270973}"/>
+    <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plants" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>Latin Name</t>
   </si>
@@ -45,20 +31,670 @@
     <t>Info</t>
   </si>
   <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>Leafs</t>
+  </si>
+  <si>
+    <t>Flower</t>
+  </si>
+  <si>
+    <t>Seeds</t>
+  </si>
+  <si>
     <t>Angelica archangelica</t>
   </si>
   <si>
     <t>Kvanne</t>
+  </si>
+  <si>
+    <t>Kvanne (Angelica archangelica) är en tvåårig ört tillhörande familjen flockblommiga växter. Plantan har ofta en stark lukt, i synnerhet underarten strandkvanne. Båda underarterna har grova rötter och upprepat sammansatta blad där småbladen är grovt sågade. Stjälken är ihålig, slät och kan ofta ha en rödaktig ton. Under plantans första år har den inga blommor utan endast blad som växer mer eller mindre direkt ifrån marken. Det är först under plantans andra år som den når sin fulla höjd och de blekgröna blommorna slår ut.</t>
+  </si>
+  <si>
+    <t>Urtica dioica</t>
+  </si>
+  <si>
+    <t>Brännässla</t>
+  </si>
+  <si>
+    <t>Brännässla (Urtica dioica) är en art i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika.</t>
+  </si>
+  <si>
+    <t>Lamium album</t>
+  </si>
+  <si>
+    <t>Vitplister</t>
+  </si>
+  <si>
+    <t>Vitplister är mångårig med jordstam. Den har lång blomningstid (maj-september). Arten växer gärna på odlad mark, i täta bestånd vid vägar, gator och murar. Den är vanlig i Sveriges östra  Örtståndet producerar en eterisk olja med mycket frän lukt. De späda skotten som kommer tidigt på våren har trots det förr använts som grönkål. De tidigaste skotten av vitplister är lätta att förväxla med nässelskott, då dessa samlas för att användas som kål, och de två växer ofta tillsammans.</t>
+  </si>
+  <si>
+    <t>Lamium purpureum</t>
+  </si>
+  <si>
+    <t>Rödplister</t>
+  </si>
+  <si>
+    <t>Rödplister (Lamium purpureum) är en ettårig, cirka 30 centimeter hög ört med purpurröda blommor. Unga blad är också purpurfärgade, men blir gröna med tiden. Den röda färgen dröjer kvar längst i spetsarna av bladen. Rödplister förekommer över större delen av Europa och i Asien. Den förekommer även tidvis, som ogräs vid odlad mark, i Nordamerika.</t>
+  </si>
+  <si>
+    <t>Achillea millefolium</t>
+  </si>
+  <si>
+    <t>Röllika</t>
+  </si>
+  <si>
+    <t>Röllika blommar hela sommaren och långt in på hösten, men ger ingen nektar. Pollineras ändå av insekter, som besöker blomman för frömjölets skull.</t>
+  </si>
+  <si>
+    <t>Chamaenerion angustifolium</t>
+  </si>
+  <si>
+    <t>Mjölke</t>
+  </si>
+  <si>
+    <t>Mjölke finns i norra halvklotets tempererade områden. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. På 1950-talet nådde den enligt en inventering i Jämtland 1 120 m, 2008 har den klättrat upp till 1 380 m. Oberoende undersökningar i Uralbergen, Alperna, Pyrenéerna och Jurabergen har visat liknande tendenser. Orsaken antas vara den globala uppvärmningen</t>
+  </si>
+  <si>
+    <t>Typha</t>
+  </si>
+  <si>
+    <t>Kaveldun</t>
+  </si>
+  <si>
+    <t>Kaveldunsläktet (Typha)[1][2] är ett släkte i familjen kaveldunsväxter[1]. Släktet har 8–15 arter som förekommer i nästan hela världen. Släktet beskrevs först av Carl von Linné. I Sverige finns arterna bredkaveldun (T. latifolia) och smalkaveldun (T. angustifolia)</t>
+  </si>
+  <si>
+    <t>Svinmålla</t>
+  </si>
+  <si>
+    <t>Chenopodium album</t>
+  </si>
+  <si>
+    <r>
+      <t>Svinmålla</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Chenopodium album</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en ört. Den förekommer ofta, som "ogräs", i trädgårdsland och andra marker med bar jord. Bladen kan användas på samma sätt som spenat. Svinmålla är vanlig i norra Indien som gröda för mat.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1] I engelska texter kallas den ibland vid sitt hindi-namn </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bathua</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eller </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bathuwa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vanlighet</t>
+  </si>
+  <si>
+    <t>Våtarv (Stellaria media) är ett mycket vanligt och rikligt förekommande ogräs i världen. I Sverige är våtarv det vanligaste örtogräset.</t>
+  </si>
+  <si>
+    <t>Stellaria media</t>
+  </si>
+  <si>
+    <t>Våtarv</t>
+  </si>
+  <si>
+    <t>Åkerspergel</t>
+  </si>
+  <si>
+    <t>Åkerspärgel (Spergula arvensis L.) är en ettårig lågväxande ört. Ursprungligen stavades svenska namnet åkerspergel.</t>
+  </si>
+  <si>
+    <t>Spergula arvensis</t>
+  </si>
+  <si>
+    <r>
+      <t>Körsbärskornell</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cornus mas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en växtart i familjen kornellväxter och förekommer naturligt från centrala och sydöstra Europa till Kaukasus. I Sverige förekommer den inte naturligt, utan som prydnadsväxt eller som bärbuske i trädgårdar och parker. Körsbärskornell är en lövfällande buske (4 meter hög) eller ett litet träd (8 meter), med bred och ganska låg krona. Buskformen har fler upprättstående huvudgrenar, medan trädformen har en genomgående stam och överhängande huvudgrenar som går ganska vågrätt ut från huvudstammen. Barken är först gråbrun med gröna inslag. Senare blir den ljusbrun med spridda korkporer och till sist är den grå och uppsprickande. Knopparna är motsatt placerade på grenen, bruna och spetsiga (blomknopparna är dock runda och utspärrade). Avståndet mellan knopparna är långt. Bladen är äggrunda, med lång spets. Bladkanten är helbreddad och bladets ådror är bågformade. Översidan är skinande grön, medan undersidan är blågrön. Höstfärgen är brungul.</t>
+    </r>
+  </si>
+  <si>
+    <t>Körsbärskornell</t>
+  </si>
+  <si>
+    <t>Cornus mas</t>
+  </si>
+  <si>
+    <t>Berries</t>
+  </si>
+  <si>
+    <t>Hönsbär</t>
+  </si>
+  <si>
+    <t>Hönsbär är en 10-25 cm hög och flerårig ört.[1] I flera avseenden liknar den skogskornell (C. sanguinea), men i andra avseenden skiljer den sig, särskilt när det gäller blomningen. Den har nämligen mycket små blommor som till alla sina delar utom ståndarna är svartröda.[1] För att insekter ändå ska lockas (jämför avsnitt Etymologi nedan), har växten en "sammansatt blomma" med ett stort och lysande skenbart blomhylle, genom att de fyra översta bladen omvandlats till högblad av vit färg som sitter i en krans som ett svepe, men härmande en blomkrona. I mitten är den lilla svartvioletta blomställningen samlad, en enkel flock.</t>
+  </si>
+  <si>
+    <t>Cornus suecica</t>
+  </si>
+  <si>
+    <t>Björnlokan</t>
+  </si>
+  <si>
+    <t>Heracleum sphondylium</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Björnlokan är en stor, grov och flerårig ört, som tämligen allmänt förekommer på ängar och vägkanter genom större delen av Sveriges floraområde, ungefär upp till polcirkeln. Den blommar under högsommaren. Björnlokan kan orsaka stor sveda om den kommer i kontakt med huden hos människor[3]. Björnloka och jätteloka innehåller furanokumariner som är irriterande på hud, särskilt om huden utsätts för solbestrålning (fotosensibilisering).[4] Brännskadeliknande symtom med kraftig hudirritation, rodnad och blåsor, som kan bli stora och smärtsamma. Besvären kan kvarstå i veckor, eventuellt även ärrbildning och mörkfärgning av huden. </t>
+  </si>
+  <si>
+    <t>Vildmorot</t>
+  </si>
+  <si>
+    <r>
+      <t>Vildmorot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Daucus carota</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D. carota sativa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot - som dock ändå är ätlig.</t>
+    </r>
+  </si>
+  <si>
+    <t>Daucus carota</t>
+  </si>
+  <si>
+    <t>Palsternacka</t>
+  </si>
+  <si>
+    <t>Palsternacka odlades redan i antikens Grekland. I Sverige omtalas den på 1500-talet, men tycks ha odlats långt tidigare, och var under medeltiden och renässansen betydligt mer populär som grönsak än idag. Den förekommer ofta i väg och dikeskanter och uppträder även som ogräs. Enligt SVA "Vildpalsternacka orsakar ökad känslighet för solljus (fotosensibilisering) och hudskador, men kan även orsaka förändringar i ögonen".</t>
+  </si>
+  <si>
+    <t>Pastinaca sativa</t>
+  </si>
+  <si>
+    <r>
+      <t>Kärrsiljan är omkring en meter hög och förekommer allmänt på kärrängar och stränder i så gott som hela Sverige och Finland.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1]</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2] I Norge förekommer den endast söder om fjällen.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2] I övrigt är den inhemsk i nästan hela Europa.</t>
+    </r>
+  </si>
+  <si>
+    <t>Kärrsilja</t>
+  </si>
+  <si>
+    <t>Peucedanum palustre</t>
+  </si>
+  <si>
+    <r>
+      <t>Strätta</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Angelica sylvestris)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> är en flerårig ört i släktet kvannar (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Angelica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) och familjen flockblommiga växter. Strättan är en mycket storvuxen ört med flikiga blad och stora vita eller rosa blomflockar, och förekommer i hela Europa och stora delar av Asien. Den återfinns framför allt på fuktig mark, bland annat på stränder och ängar samt på mänskligt störd mark som vägrenar och betesmarker. Roten har en aromatisk doft, och strättan har tidigare använts som färgväxt, i medicinen samt till örtte och mjöl.</t>
+    </r>
+  </si>
+  <si>
+    <t>Strätta</t>
+  </si>
+  <si>
+    <t>Angelica sylvestris</t>
+  </si>
+  <si>
+    <t>Fänkål blir cirka 1,5 meter hög. Bladen är mycket finflikiga (dilliknande) och doftar aromatiskt och lakritsliknande. Hela växten innehåller eteriska oljor. Under blomningstiden utvecklas ganska bleka stjälkar, med kraftiga förtjockningar vid markytan.</t>
+  </si>
+  <si>
+    <t>Fänkål</t>
+  </si>
+  <si>
+    <t>Foeniculum vulgare</t>
+  </si>
+  <si>
+    <t>Förvildad</t>
+  </si>
+  <si>
+    <r>
+      <t>Libbsticka,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Levisticum officinale</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> W.D.J.Koch, även kallad </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>selleriört</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, är en flerårig växt inom familjen flockblommiga växter. Växten används som krydda och fördes på medeltiden till Sverige av munkar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Libbsticka</t>
+  </si>
+  <si>
+    <t>Levisticum officinale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -72,6 +708,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,16 +722,197 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -96,17 +920,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,21 +1430,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D11510-A1CD-4592-931A-B69E92B4EF4A}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,17 +1454,422 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="K14">
         <v>4</v>
       </c>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C10" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E84B3D2-7732-4536-B60B-6D8DD5B95BF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12D57C-97E6-4E5C-A481-5EDB1BA5648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Latin Name</t>
   </si>
@@ -115,95 +115,6 @@
     <t>Chenopodium album</t>
   </si>
   <si>
-    <r>
-      <t>Svinmålla</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Chenopodium album</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) är en ört. Den förekommer ofta, som "ogräs", i trädgårdsland och andra marker med bar jord. Bladen kan användas på samma sätt som spenat. Svinmålla är vanlig i norra Indien som gröda för mat.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1] I engelska texter kallas den ibland vid sitt hindi-namn </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bathua</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> eller </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>bathuwa.</t>
-    </r>
-  </si>
-  <si>
     <t>Vanlighet</t>
   </si>
   <si>
@@ -216,51 +127,12 @@
     <t>Våtarv</t>
   </si>
   <si>
-    <t>Åkerspergel</t>
-  </si>
-  <si>
     <t>Åkerspärgel (Spergula arvensis L.) är en ettårig lågväxande ört. Ursprungligen stavades svenska namnet åkerspergel.</t>
   </si>
   <si>
     <t>Spergula arvensis</t>
   </si>
   <si>
-    <r>
-      <t>Körsbärskornell</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cornus mas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) är en växtart i familjen kornellväxter och förekommer naturligt från centrala och sydöstra Europa till Kaukasus. I Sverige förekommer den inte naturligt, utan som prydnadsväxt eller som bärbuske i trädgårdar och parker. Körsbärskornell är en lövfällande buske (4 meter hög) eller ett litet träd (8 meter), med bred och ganska låg krona. Buskformen har fler upprättstående huvudgrenar, medan trädformen har en genomgående stam och överhängande huvudgrenar som går ganska vågrätt ut från huvudstammen. Barken är först gråbrun med gröna inslag. Senare blir den ljusbrun med spridda korkporer och till sist är den grå och uppsprickande. Knopparna är motsatt placerade på grenen, bruna och spetsiga (blomknopparna är dock runda och utspärrade). Avståndet mellan knopparna är långt. Bladen är äggrunda, med lång spets. Bladkanten är helbreddad och bladets ådror är bågformade. Översidan är skinande grön, medan undersidan är blågrön. Höstfärgen är brungul.</t>
-    </r>
-  </si>
-  <si>
     <t>Körsbärskornell</t>
   </si>
   <si>
@@ -273,9 +145,6 @@
     <t>Hönsbär</t>
   </si>
   <si>
-    <t>Hönsbär är en 10-25 cm hög och flerårig ört.[1] I flera avseenden liknar den skogskornell (C. sanguinea), men i andra avseenden skiljer den sig, särskilt när det gäller blomningen. Den har nämligen mycket små blommor som till alla sina delar utom ståndarna är svartröda.[1] För att insekter ändå ska lockas (jämför avsnitt Etymologi nedan), har växten en "sammansatt blomma" med ett stort och lysande skenbart blomhylle, genom att de fyra översta bladen omvandlats till högblad av vit färg som sitter i en krans som ett svepe, men härmande en blomkrona. I mitten är den lilla svartvioletta blomställningen samlad, en enkel flock.</t>
-  </si>
-  <si>
     <t>Cornus suecica</t>
   </si>
   <si>
@@ -288,212 +157,24 @@
     <t>Avoid</t>
   </si>
   <si>
-    <t xml:space="preserve">Björnlokan är en stor, grov och flerårig ört, som tämligen allmänt förekommer på ängar och vägkanter genom större delen av Sveriges floraområde, ungefär upp till polcirkeln. Den blommar under högsommaren. Björnlokan kan orsaka stor sveda om den kommer i kontakt med huden hos människor[3]. Björnloka och jätteloka innehåller furanokumariner som är irriterande på hud, särskilt om huden utsätts för solbestrålning (fotosensibilisering).[4] Brännskadeliknande symtom med kraftig hudirritation, rodnad och blåsor, som kan bli stora och smärtsamma. Besvären kan kvarstå i veckor, eventuellt även ärrbildning och mörkfärgning av huden. </t>
-  </si>
-  <si>
     <t>Vildmorot</t>
   </si>
   <si>
-    <r>
-      <t>Vildmorot</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Daucus carota</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>D. carota sativa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot - som dock ändå är ätlig.</t>
-    </r>
-  </si>
-  <si>
     <t>Daucus carota</t>
   </si>
   <si>
     <t>Palsternacka</t>
   </si>
   <si>
-    <t>Palsternacka odlades redan i antikens Grekland. I Sverige omtalas den på 1500-talet, men tycks ha odlats långt tidigare, och var under medeltiden och renässansen betydligt mer populär som grönsak än idag. Den förekommer ofta i väg och dikeskanter och uppträder även som ogräs. Enligt SVA "Vildpalsternacka orsakar ökad känslighet för solljus (fotosensibilisering) och hudskador, men kan även orsaka förändringar i ögonen".</t>
-  </si>
-  <si>
     <t>Pastinaca sativa</t>
   </si>
   <si>
-    <r>
-      <t>Kärrsiljan är omkring en meter hög och förekommer allmänt på kärrängar och stränder i så gott som hela Sverige och Finland.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1]</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2] I Norge förekommer den endast söder om fjällen.</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2] I övrigt är den inhemsk i nästan hela Europa.</t>
-    </r>
-  </si>
-  <si>
     <t>Kärrsilja</t>
   </si>
   <si>
     <t>Peucedanum palustre</t>
   </si>
   <si>
-    <r>
-      <t>Strätta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Angelica sylvestris)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> är en flerårig ört i släktet kvannar (</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Angelica</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) och familjen flockblommiga växter. Strättan är en mycket storvuxen ört med flikiga blad och stora vita eller rosa blomflockar, och förekommer i hela Europa och stora delar av Asien. Den återfinns framför allt på fuktig mark, bland annat på stränder och ängar samt på mänskligt störd mark som vägrenar och betesmarker. Roten har en aromatisk doft, och strättan har tidigare använts som färgväxt, i medicinen samt till örtte och mjöl.</t>
-    </r>
-  </si>
-  <si>
     <t>Strätta</t>
   </si>
   <si>
@@ -510,6 +191,120 @@
   </si>
   <si>
     <t>Förvildad</t>
+  </si>
+  <si>
+    <t>Libbsticka</t>
+  </si>
+  <si>
+    <t>Levisticum officinale</t>
+  </si>
+  <si>
+    <t>Palsternacka odlades redan i antikens Grekland. I Sverige omtalas den på 1500-talet, men tycks ha odlats långt tidigare, och var under medeltiden och renässansen betydligt mer populär som grönsak än idag. Den förekommer ofta i väg och dikeskanter och uppträder även som ogräs. Enligt SVA Vildpalsternacka orsakar ökad känslighet för solljus (fotosensibilisering) och hudskador, men kan även orsaka förändringar i ögonen.</t>
+  </si>
+  <si>
+    <t>Björnlokan är en stor, grov och flerårig ört, som tämligen allmänt förekommer på ängar och vägkanter genom större delen av Sveriges floraområde, ungefär upp till polcirkeln. Den blommar under högsommaren. Björnlokan kan orsaka stor sveda om den kommer i kontakt med huden hos människor. Björnloka och jätteloka innehåller furanokumariner som är irriterande på hud, särskilt om huden utsätts för solbestrålning (fotosensibilisering).</t>
+  </si>
+  <si>
+    <t>Kärrsiljan är omkring en meter hög och förekommer allmänt på kärrängar och stränder i så gott som hela Sverige och Finland. I Norge förekommer den endast söder om fjällen. I övrigt är den inhemsk i nästan hela Europa.</t>
+  </si>
+  <si>
+    <t>Hönsbär är en 10-25 cm hög och flerårig ört. I flera avseenden liknar den skogskornell (C. sanguinea), men i andra avseenden skiljer den sig, särskilt när det gäller blomningen. Den har nämligen mycket små blommor som till alla sina delar utom ståndarna är svartröda.</t>
+  </si>
+  <si>
+    <t>Åkerspärgel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kirskål kan bli upp till 80 cm hög. De bredbladiga bladen är två gånger 3-fingrade med tandad kant. De små vita blommorna sitter samlade i flockar, och pollineras framförallt av flugor och skalbaggar. I Sverige är kirskålen begränsad till den sydliga hälften av floraområdet. Är där vanlig i parker och gamla trädgårdar, men mindre vanlig i lundskogar och på inägor. </t>
+  </si>
+  <si>
+    <t>Kirskål</t>
+  </si>
+  <si>
+    <t>Aegopodium podagraria</t>
+  </si>
+  <si>
+    <t>Bockrot</t>
+  </si>
+  <si>
+    <t>Pimpinella saxifraga</t>
+  </si>
+  <si>
+    <t>Carum carvi</t>
+  </si>
+  <si>
+    <t>Kummin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kummin har en mycket lång historia och kan spåras tillbaka till sumererna, som kallade kryddan gamun. De torkade frukterna (ofta felaktigt benämnda frön) används som krydda till exempelvis bröd, korv, ost och soppor. De används också för smaksättning av kryddat brännvin (akvavit). </t>
+  </si>
+  <si>
+    <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, "kruspersilja".</t>
+  </si>
+  <si>
+    <t>Persilja</t>
+  </si>
+  <si>
+    <t>Petroselinum crispum</t>
+  </si>
+  <si>
+    <t>Aethusa cynapium</t>
+  </si>
+  <si>
+    <t>Vildpersilja</t>
+  </si>
+  <si>
+    <t>Hela växten är mycket giftig, särskilt fröna. Förtäring medför kraftigt illamående, kräkning, diarré, stark salivavsöndring, muskelryckningar, smärta i buken och muskler, svårighet att röra på armarna och benen, sluddrande tal, dvala.[1] Många av följderna liknar dem hos epilepsi. Förgiftningar behandlas med magpumpning och därefter dryck.</t>
+  </si>
+  <si>
+    <t>Selleri</t>
+  </si>
+  <si>
+    <t>Apium graveolens</t>
+  </si>
+  <si>
+    <t>Coriandrum sativum</t>
+  </si>
+  <si>
+    <t>Koriander</t>
+  </si>
+  <si>
+    <t>Finns vildväxande enbart i Europa, huvudsakligen i lägre områden omslutande Alpernas västra del och på liknande vis runt Pyrenéerna. I Sverige ursprungligen enbart som odlad kryddväxt, men kan finnas förvildad i närheten av kulturpåverkade områden.</t>
+  </si>
+  <si>
+    <t>Spansk körvel</t>
+  </si>
+  <si>
+    <t>Myrrhis odorata</t>
+  </si>
+  <si>
+    <t>Arten är ursprunglig i östra Europa och västra Asien, från Schweiz och Polen till norra Iran, men har introducerats i större delen av övriga Europa och på flera platser i Nordamerika och Nordafrika. I Sverige är den inte ursprunglig, men är bofast och reproducerande i södra delen av landet, till Uppland och Dalarna. Bladen används färska, torkade eller frysta som krydda till bland annat soppa, sås, sallad, kyckling, ägg- och fiskrätter. Som krydda ingår den i kryddblandningen fines herbes. Smaken påminner om anis.</t>
+  </si>
+  <si>
+    <t>Dansk körvel</t>
+  </si>
+  <si>
+    <t>Anthriscus cerefolium</t>
+  </si>
+  <si>
+    <t>Hundkäx (Anthriscus sylvestris) (L.) Hoffm. är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
+  </si>
+  <si>
+    <t>Hundkäx</t>
+  </si>
+  <si>
+    <t>Anthriscus sylvestris</t>
+  </si>
+  <si>
+    <t>Svinmålla (Chenopodium album) är en ört. Den förekommer ofta, som "ogräs", i trädgårdsland och andra marker med bar jord. Bladen kan användas på samma sätt som spenat. Svinmålla är vanlig i norra Indien som gröda för mat.[1] I engelska texter kallas den ibland vid sitt hindi-namn bathua eller bathuwa.</t>
+  </si>
+  <si>
+    <t>Körsbärskornell (Cornus mas) är en växtart i familjen kornellväxter och förekommer naturligt från centrala och sydöstra Europa till Kaukasus. Körsbärskornell är en lövfällande buske (4 meter hög) eller ett litet träd (8 meter), med bred och ganska låg krona. Bladen är äggrunda, med lång spets.</t>
+  </si>
+  <si>
+    <t>Vildmorot (Daucus carota) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (D. carota sativa) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot - som dock ändå är ätlig.</t>
+  </si>
+  <si>
+    <t>Strätta (Angelica sylvestris) är en flerårig ört i släktet kvannar (Angelica) och familjen flockblommiga växter. Strättan är en mycket storvuxen ört med flikiga blad och stora vita eller rosa blomflockar, och förekommer i hela Europa och stora delar av Asien. Den återfinns framför allt på fuktig mark, bland annat på stränder och ängar samt på mänskligt störd mark som vägrenar och betesmarker. Roten har en aromatisk doft, och strättan har tidigare använts som färgväxt, i medicinen samt till örtte och mjöl.</t>
   </si>
   <si>
     <r>
@@ -548,7 +343,6 @@
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -569,17 +363,20 @@
     </r>
   </si>
   <si>
-    <t>Libbsticka</t>
-  </si>
-  <si>
-    <t>Levisticum officinale</t>
+    <t>Bockrot, vanlig bockrot eller backanis (Pimpinella saxifraga) är flerårig med en så kallad "månghövdad pålrot", det vill säga en kort kandelaberstam, uppburen av pålroten. Den växer allmänt på torra ängsbackar genom nästan hela Skandinavien. Roten är seg, smal och mycket djupgående, den har en brännande aromatisk smak och brukades förr som ett magstärkande och slemlösande läkemedel, till te mot hosta med mera. Den fanns med i den svenska farmakopén från 1775 fram till 1908 och såldes även på apoteken under de båda världskrigen. Ett extrakt av roten ingick bland annat i "Pimpinelladroppar" mot heshet och halsont</t>
+  </si>
+  <si>
+    <t>Selleri (Apium graveolens) är en tvåårig, starkt doftande ört, som växer vilt i Europa, västra Asien och Nordafrika. Selleri har en lång historia som krydd- och medicinalväxt och den äts även som grönsak och rotfrukt. Det är främst roten, stjälken och fröna som används men även blad kan användas.</t>
+  </si>
+  <si>
+    <t>Koriander har sitt ursprung i Sydeuropa och Asien. De torkade fröna har en kryddig, nötaktig behaglig smak. Bladen har en svårdefinierad aromatisk lukt och smak, som inte alla tycker om. Bladen används i asiatisk matlagning ungefär som man i Sverige använder persilja.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,14 +513,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1072,9 +861,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1431,55 +1219,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="4" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>65</v>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1625,17 +1414,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
@@ -1650,13 +1439,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1673,13 +1462,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1696,13 +1485,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -1715,14 +1504,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>45</v>
+      <c r="A13" t="s">
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1732,14 +1521,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>47</v>
+      <c r="A14" t="s">
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1750,13 +1539,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1766,14 +1555,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>55</v>
+      <c r="A16" t="s">
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1782,15 +1571,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>58</v>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1801,13 +1590,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1820,14 +1609,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>64</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1850,19 +1639,252 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
       <c r="L20">
         <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A12D57C-97E6-4E5C-A481-5EDB1BA5648F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5B371A-6878-429C-8978-DAC89C0B3093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Kaveldun</t>
   </si>
   <si>
-    <t>Kaveldunsläktet (Typha)[1][2] är ett släkte i familjen kaveldunsväxter[1]. Släktet har 8–15 arter som förekommer i nästan hela världen. Släktet beskrevs först av Carl von Linné. I Sverige finns arterna bredkaveldun (T. latifolia) och smalkaveldun (T. angustifolia)</t>
-  </si>
-  <si>
     <t>Svinmålla</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t xml:space="preserve">Kummin har en mycket lång historia och kan spåras tillbaka till sumererna, som kallade kryddan gamun. De torkade frukterna (ofta felaktigt benämnda frön) används som krydda till exempelvis bröd, korv, ost och soppor. De används också för smaksättning av kryddat brännvin (akvavit). </t>
   </si>
   <si>
-    <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, "kruspersilja".</t>
-  </si>
-  <si>
     <t>Persilja</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>Vildpersilja</t>
   </si>
   <si>
-    <t>Hela växten är mycket giftig, särskilt fröna. Förtäring medför kraftigt illamående, kräkning, diarré, stark salivavsöndring, muskelryckningar, smärta i buken och muskler, svårighet att röra på armarna och benen, sluddrande tal, dvala.[1] Många av följderna liknar dem hos epilepsi. Förgiftningar behandlas med magpumpning och därefter dryck.</t>
-  </si>
-  <si>
     <t>Selleri</t>
   </si>
   <si>
@@ -295,16 +286,10 @@
     <t>Anthriscus sylvestris</t>
   </si>
   <si>
-    <t>Svinmålla (Chenopodium album) är en ört. Den förekommer ofta, som "ogräs", i trädgårdsland och andra marker med bar jord. Bladen kan användas på samma sätt som spenat. Svinmålla är vanlig i norra Indien som gröda för mat.[1] I engelska texter kallas den ibland vid sitt hindi-namn bathua eller bathuwa.</t>
-  </si>
-  <si>
     <t>Körsbärskornell (Cornus mas) är en växtart i familjen kornellväxter och förekommer naturligt från centrala och sydöstra Europa till Kaukasus. Körsbärskornell är en lövfällande buske (4 meter hög) eller ett litet träd (8 meter), med bred och ganska låg krona. Bladen är äggrunda, med lång spets.</t>
   </si>
   <si>
     <t>Vildmorot (Daucus carota) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (D. carota sativa) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot - som dock ändå är ätlig.</t>
-  </si>
-  <si>
-    <t>Strätta (Angelica sylvestris) är en flerårig ört i släktet kvannar (Angelica) och familjen flockblommiga växter. Strättan är en mycket storvuxen ört med flikiga blad och stora vita eller rosa blomflockar, och förekommer i hela Europa och stora delar av Asien. Den återfinns framför allt på fuktig mark, bland annat på stränder och ängar samt på mänskligt störd mark som vägrenar och betesmarker. Roten har en aromatisk doft, och strättan har tidigare använts som färgväxt, i medicinen samt till örtte och mjöl.</t>
   </si>
   <si>
     <r>
@@ -363,13 +348,28 @@
     </r>
   </si>
   <si>
-    <t>Bockrot, vanlig bockrot eller backanis (Pimpinella saxifraga) är flerårig med en så kallad "månghövdad pålrot", det vill säga en kort kandelaberstam, uppburen av pålroten. Den växer allmänt på torra ängsbackar genom nästan hela Skandinavien. Roten är seg, smal och mycket djupgående, den har en brännande aromatisk smak och brukades förr som ett magstärkande och slemlösande läkemedel, till te mot hosta med mera. Den fanns med i den svenska farmakopén från 1775 fram till 1908 och såldes även på apoteken under de båda världskrigen. Ett extrakt av roten ingick bland annat i "Pimpinelladroppar" mot heshet och halsont</t>
-  </si>
-  <si>
     <t>Selleri (Apium graveolens) är en tvåårig, starkt doftande ört, som växer vilt i Europa, västra Asien och Nordafrika. Selleri har en lång historia som krydd- och medicinalväxt och den äts även som grönsak och rotfrukt. Det är främst roten, stjälken och fröna som används men även blad kan användas.</t>
   </si>
   <si>
     <t>Koriander har sitt ursprung i Sydeuropa och Asien. De torkade fröna har en kryddig, nötaktig behaglig smak. Bladen har en svårdefinierad aromatisk lukt och smak, som inte alla tycker om. Bladen används i asiatisk matlagning ungefär som man i Sverige använder persilja.</t>
+  </si>
+  <si>
+    <t>Strätta (Angelica sylvestris) är en flerårig ört i släktet kvannar (Angelica). Den återfinns framför allt på fuktig mark, bland annat på stränder och ängar samt på mänskligt störd mark som vägrenar och betesmarker. Roten har en aromatisk doft, och strättan har tidigare använts som färgväxt, i medicinen samt till örtte och mjöl.</t>
+  </si>
+  <si>
+    <t>Svinmålla (Chenopodium album) är en ört. Den förekommer ofta, som ogräs, i trädgårdsland och andra marker med bar jord. Bladen kan användas på samma sätt som spenat. Svinmålla är vanlig i norra Indien som gröda för mat. I engelska texter kallas den ibland vid sitt hindi-namn bathua eller bathuwa.</t>
+  </si>
+  <si>
+    <t>Bockrot, vanlig bockrot eller backanis (Pimpinella saxifraga) är flerårig. Den växer allmänt på torra ängsbackar genom nästan hela Skandinavien. Roten är seg, smal och mycket djupgående, den har en brännande aromatisk smak och brukades förr som ett magstärkande och slemlösande läkemedel, till te mot hosta med mera. Den fanns med i den svenska farmakopén från 1775 fram till 1908 och såldes även på apoteken under de båda världskrigen. Ett extrakt av roten ingick bland annat i Pimpinelladroppar mot heshet och halsont.</t>
+  </si>
+  <si>
+    <t>Hela växten är mycket giftig, särskilt fröna. Förtäring medför kraftigt illamående, kräkning, diarré, stark salivavsöndring, muskelryckningar, smärta i buken och muskler, svårighet att röra på armarna och benen, sluddrande tal, dvala. Många av följderna liknar dem hos epilepsi. Förgiftningar behandlas med magpumpning och därefter dryck.</t>
+  </si>
+  <si>
+    <t>Kaveldunsläktet (Typha) är ett släkte i familjen kaveldunsväxter. Släktet har 8–15 arter som förekommer i nästan hela världen. Släktet beskrevs först av Carl von Linné. I Sverige finns arterna bredkaveldun (T. latifolia) och smalkaveldun (T. angustifolia)</t>
+  </si>
+  <si>
+    <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, kruspersilja.</t>
   </si>
 </sst>
 </file>
@@ -1221,15 +1221,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1262,53 +1262,44 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1319,135 +1310,159 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
         <v>91</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="H9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
@@ -1457,293 +1472,302 @@
         <v>1</v>
       </c>
       <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>1</v>
+      <c r="J15">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="K16">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
+      <c r="K18">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="L19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="L20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -1751,59 +1775,56 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="D27">
         <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1814,19 +1835,16 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1836,60 +1854,54 @@
       </c>
       <c r="H28">
         <v>1</v>
-      </c>
-      <c r="L28">
-        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
+      <c r="E29">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
+    <sortCondition ref="A2:A30"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
+    <hyperlink ref="C28" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C5B371A-6878-429C-8978-DAC89C0B3093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24C6A6-33DD-4773-B2A2-094C2440A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Brännässla</t>
-  </si>
-  <si>
-    <t>Brännässla (Urtica dioica) är en art i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika.</t>
   </si>
   <si>
     <t>Lamium album</t>
@@ -370,6 +367,9 @@
   </si>
   <si>
     <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, kruspersilja.</t>
+  </si>
+  <si>
+    <t>Brännässla (Urtica dioica) är en art[1] i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika.</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1262,24 +1262,24 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>22</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1290,13 +1290,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1310,13 +1310,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1376,13 +1376,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1402,13 +1402,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>69</v>
-      </c>
-      <c r="C10" t="s">
-        <v>70</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1497,13 +1497,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1520,13 +1520,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1577,13 +1577,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1640,13 +1640,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1663,13 +1663,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -1709,13 +1709,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1738,13 +1738,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1775,13 +1775,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -1792,13 +1792,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -1835,13 +1835,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1858,13 +1858,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" t="s">
-        <v>27</v>
-      </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1881,7 +1881,7 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D30">
         <v>1</v>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E24C6A6-33DD-4773-B2A2-094C2440A51A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2905B09-C5AB-4D68-B3EA-142F1728C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Latin Name</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Cornus suecica</t>
   </si>
   <si>
-    <t>Björnlokan</t>
-  </si>
-  <si>
     <t>Heracleum sphondylium</t>
   </si>
   <si>
@@ -272,9 +269,6 @@
   </si>
   <si>
     <t>Anthriscus cerefolium</t>
-  </si>
-  <si>
-    <t>Hundkäx (Anthriscus sylvestris) (L.) Hoffm. är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
   </si>
   <si>
     <t>Hundkäx</t>
@@ -370,6 +364,30 @@
   </si>
   <si>
     <t>Brännässla (Urtica dioica) är en art[1] i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika.</t>
+  </si>
+  <si>
+    <t>Björnloka</t>
+  </si>
+  <si>
+    <t>Odört</t>
+  </si>
+  <si>
+    <t>Conium maculatum</t>
+  </si>
+  <si>
+    <t>Odört är sällsynt i Sverige men kan påträffas förvildad på gårdar, vid vägkanter, tångvallar, på ruderatmark, och intill hamnar. Odörten är känd för sitt starka gift. Hela växten är mycket giftig och det är framförallt de omogna fröna och bladen som är allra mest verksamma.</t>
+  </si>
+  <si>
+    <t>Sprängört</t>
+  </si>
+  <si>
+    <t>Cicuta virosa</t>
+  </si>
+  <si>
+    <t>Sprängört är känd för att vara en av de giftigaste örterna som finns i den svenska floran. Hela växten är mycket giftig, men det är i roten och nedre delen av stjälken som giftet finns koncentrerat i växtsaften. De giftiga kemiska föreningarna är cicutoxin och cicutol, som även vid små mängder ger epilepsiliknande krampanfall och kan leda till döden. Framför allt växer den i våtmarker av olika slag, dess utbredning i Norden är över nästan hela regionen utom i fjälltrakter samt längst i norr. Hela växten är mycket giftig, i synnerhet den tjocka rotstammen.</t>
+  </si>
+  <si>
+    <t>Hundkäx (Anthriscus sylvestris) är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
   </si>
 </sst>
 </file>
@@ -861,9 +879,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1219,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,10 +1284,10 @@
         <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1290,13 +1309,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1310,13 +1329,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1353,13 +1372,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1376,13 +1395,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -1402,13 +1421,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1425,13 +1444,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1451,13 +1470,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
         <v>67</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>68</v>
-      </c>
-      <c r="C10" t="s">
-        <v>69</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1503,7 +1522,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1519,272 +1538,269 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>76</v>
+      <c r="A13" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
+      <c r="K13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>36</v>
+      <c r="A14" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="K14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="J17">
         <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="K18">
-        <v>4</v>
+      <c r="E18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
+      <c r="K20">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="L21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="K23">
-        <v>2</v>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="K24">
-        <v>2</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1792,116 +1808,153 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>92</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29">
-        <v>2</v>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>12</v>
       </c>
-      <c r="C30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
         <v>0</v>
       </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L30">
-    <sortCondition ref="A2:A30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
+    <sortCondition ref="A2:A32"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
+    <hyperlink ref="C30" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2905B09-C5AB-4D68-B3EA-142F1728C244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AAF99-020A-424A-A005-9196287564D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28860" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Latin Name</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Mjölke</t>
-  </si>
-  <si>
-    <t>Mjölke finns i norra halvklotets tempererade områden. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. På 1950-talet nådde den enligt en inventering i Jämtland 1 120 m, 2008 har den klättrat upp till 1 380 m. Oberoende undersökningar i Uralbergen, Alperna, Pyrenéerna och Jurabergen har visat liknande tendenser. Orsaken antas vara den globala uppvärmningen</t>
   </si>
   <si>
     <t>Typha</t>
@@ -388,6 +385,268 @@
   </si>
   <si>
     <t>Hundkäx (Anthriscus sylvestris) är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
+  </si>
+  <si>
+    <t>Havtorn</t>
+  </si>
+  <si>
+    <t>Hippophaë rhamnoides</t>
+  </si>
+  <si>
+    <t>Oenothera glazioviana</t>
+  </si>
+  <si>
+    <t>Jättenattljus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjölke finns i norra halvklotets tempererade områden. Den har många namn såsom rallarros, rävarumpa, praktdua samt mjölke eller mjölkört. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. Alla delar av växten har brukats, små späda skott som sparris, bladen som sallad, spenat eller te. Brygg te på bladen som skärdas inna växten går io blom. Koka förväll eller rosta roten. Kaffesubstitut. Unga stjälkar har torkats och malts till mjöl. </t>
+  </si>
+  <si>
+    <t>Lathyrus linifolius</t>
+  </si>
+  <si>
+    <r>
+      <t>Gökärt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>Fridlyst</t>
+  </si>
+  <si>
+    <t>Knölvial</t>
+  </si>
+  <si>
+    <t>Lathyrus tuberosus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Sverige vanlig söder om Dalälven, mindre vanlig norr därom. Finns ej i Övre Norrland. Blomman är ätbar och således även kallad gökmat i vissa områden. Roten är näringsrik och kan bakas till nödbröd. I Skottland lär den ha tuggats rå, utan någon särskild matlagning. </t>
+  </si>
+  <si>
+    <t>I Sverige växer havtorn främst längs med östersjökusten, mest allmänt i Uppland. Den förekommer också på enstaka platser i Bohuslän, på Öland, i Skåne och i Upplands inland och längs Bottenviken i Norrbotten. Honplantorna producerar orangefärgade bär med en diameter av sex–nio millimeter, som är mjuka och saftiga och rika på C-vitamin 120 milligram C-vitamin per 100 gram bär.</t>
+  </si>
+  <si>
+    <t>Kråkvicker</t>
+  </si>
+  <si>
+    <t>Vicia cracca</t>
+  </si>
+  <si>
+    <t>Häckvicker växer ofta på relativt mager gräsmark, i häckar samt längs vägrenar. Den klänger normalt på annan vegeration. Kan möjligtvis blandas ihop med kråkvicker. Arterna skiljs åt genom att kråkvicker har mindre, mörkgrönare småblad och fler småblad per bladskaft. Dessutom har häckvicker färre blommor och ofta en något rödare variant av den violetta färgen.</t>
+  </si>
+  <si>
+    <t>Häckvicker</t>
+  </si>
+  <si>
+    <t>Vicia sepium</t>
+  </si>
+  <si>
+    <t>Vitklöver blommar från juni till september och är en av Nordens allmännaste växter. Vitklövern är den klöverart som lättast bildar genetiska missbildningar (mutationer) i bladen, vilka ger som resultat att bladet i stället för att bli tredelat blir delat på fyra, det vi kallar för fyrklöver. Vid växtfärgning kan vitklöverblommor användas för att med alun som betmedel färga ylle gult. Boskap samt människa kan använda blommorna som mat. Vitklöverblommor kan nyttjas som ingrediens i nödbröd.</t>
+  </si>
+  <si>
+    <t>Vitklöver</t>
+  </si>
+  <si>
+    <t>Trifolium repens</t>
+  </si>
+  <si>
+    <t>Rödklöver</t>
+  </si>
+  <si>
+    <t>Trifolium pratense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denna växt är vanlig på frisk jord i skogskanter, på ängar, vägkanter och öppen skog. Den klarar sig inte bra på gödslad jord. Skogsklövern har lågt betesvärde och betraktas närmast som ett ogräs av jordbrukare. </t>
+  </si>
+  <si>
+    <t>Trifolium medium</t>
+  </si>
+  <si>
+    <t>Skogsklöver</t>
+  </si>
+  <si>
+    <t>Jättenattljus (Oenothera glazioviana) är en art i familjen dunörtsväxter. Arten förekommer inte vild i den vanliga bemärkelsen utan har uppstått i Europa genom hybridisering av två odlade arter. Ingen av växterna i familjen betraktas som giftig. Hybriden är genetiskt stabil och räknas därför som en ny art. När blomman vissnar ersätts den med fröskida med värdefulla frön, vilket man kan extrahera den till naturmedelsoljan vars namn är Jättenattljusolja, fröna kallpressas. Den har i England odlats för sina ätliga rötter och i tyskland har skott ätits.</t>
+  </si>
+  <si>
+    <t>Knölvial (Lathyrus tuberosus) är en art i familjen ärtväxter. Arten förekommer i större delen av Europa, österut till Centralasien. Odlas ibland för sina ätliga rotknölar. Knölarna kallades i äldre tid jordnötter eller jordmöss, då de 3–4 centimeter långa knölarna liknar små möss, och smakar som kastanjer. Särskilt under 1800-talet ansågs knölvialens rotknölar som en läckerhet. Numera odlas arten oftare som prydnadsväxt.</t>
+  </si>
+  <si>
+    <r>
+      <t>Kråkvicker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tranärt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eller </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fågelvicker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vicia cracca</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en art i familjen ärtväxter som förekommer naturligt i stora delar av Eurasien, i Sverige är den vanlig överallt utom i fjälltrakterna. Arten har tidigare odlats som foderväxt i Sverige.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Rödklöver (Trifolium pratense L.) är en flerårig ört. Den är den mest odlade ärtväxten i Sverige, där den har odlats sedan 1700-talet, och används som numera ensilerad vallväxt. Färska blommor och småskurna blad kan användas i sallader. Den välsmakande nektarn kan sugas ut från blomman. Blommorna kan torkas och malas till mjöl. Detta har enligt Carl von Linné varit vanligt på Irland under nödår. </t>
+  </si>
+  <si>
+    <t>Cytisus scoparius</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Den blir från 40 till 150 cm hög och blommar från maj till juni med orangegula blommor som växer med en till två blommor på cirka två cm långa skaft från bladvecken. Harris växer i form av en kvastlik buske med femkantiga gröna grenar utan tornar. Unga knoppar kan användas i sallad.Stora mängder har orsakat förgiftningar hos djur då den innehåller spartein och isospartein. Har använts som abortframkallande medel.</t>
+  </si>
+  <si>
+    <t>Häggmispel är en buske eller ett mindre träd, och blir upp till fem meter hög. Arten är ljuskrävande, men tål vind. Som förvildad hittas den ofta i skogsbryn, lövskogar, vägrenar och dungar i anslutning till gårdar. Till skillnad från flera andra arter i häggmispelsläktet, såsom svensk häggmispel, sen häggmispel och prakthäggmispel, är frukten inte att betrakta som smaklig.</t>
+  </si>
+  <si>
+    <t>Häggmispel</t>
+  </si>
+  <si>
+    <t>Amelanchier spicata</t>
+  </si>
+  <si>
+    <t>Crataegus</t>
+  </si>
+  <si>
+    <t>Hagtorn</t>
+  </si>
+  <si>
+    <t>Många arter och hybrider av hagtornar används som park- eller alléträd. Hagtorn används i Europa ofta som en häckväxt. Särskilt rosablommande kultivarer av rundhagtorn är populära i dessa sammanhang. Unga blad eller blommor kan torkas till te eller användas i sallader. Frukterna har används som mjölersättning. Torkade frukter som kaffesurregat.</t>
+  </si>
+  <si>
+    <t>Rönnbär</t>
+  </si>
+  <si>
+    <t>Sorbus aucuparia</t>
+  </si>
+  <si>
+    <t>Frukterna kallas rönnbär och är små äppelfrukter, med endast 2 eller 3 rum med mycket tunna, mjuka hinnväggar. De mogna rönnbären utgör den viktigaste vinterfödan för många fågelarter, till exempel sidensvans och trastar. Genom fåglarna sprids fröna, och kan då också hamna på tak, murar, bergväggar och uppe i kronorna på större träd. Eftersom rönnbären är beska och syrliga konsumeras de sällan av människor. Rönnbären används till rönnbärsgelé och till att krydda brännvin. På grund av den höga halten av vitamin C användes de mot skörbjugg. Rönnbären innehåller även naturliga antioxidanter i form av polyfenoler. Kyla gör att syrligheten mildras och därför brukar rönnbären plockas först efter första frostnatten. Unga blad ska kunna användas i sallader. Sorbitol kan fabrikframställas av bären.</t>
+  </si>
+  <si>
+    <t>Finnoxel</t>
+  </si>
+  <si>
+    <t>Finnoxeln är ett lågt träd, 4–5 m högt, ibland buskartat. Bladen är ludna på undersidan. Blommar i juni med gulvita starkt doftande blommor i klasar. Bären är centimeterstora och röda, smakar något surt. Träd med snarlika utseenden är fagerrönn (Sorbus meinchii) och avarönn (Sorbus teodori). Ska man använda oxelbär är finnoxeln att föredra. Torkade malda mjöl har använts i mjöl. Det har även kokats sirap, bryggts till öl och svagdricka. Torkade har de använts i soppor och välling. Mos och gele.</t>
+  </si>
+  <si>
+    <t>Sorbus hybrida</t>
+  </si>
+  <si>
+    <t>Sorbus intermedia</t>
+  </si>
+  <si>
+    <t>Svenskoxel</t>
+  </si>
+  <si>
+    <t>Oxeln uppkom i Sverige för mindre än 12 000 år sedan genom korsning av arter som kommit in från kontinenten efter istiden. Korsningen involverade två träd varav det ena var en tyskoxel (S. torminalis). Jämfört med rönnen har den något större blommor, större, avlånga frukter av mörkare, brunröd färg och mjöligare, sötaktigt fruktkött. Veden har en densitet på 0,6 vilket är det tyngsta och hårdaste träet i Sverige.</t>
+  </si>
+  <si>
+    <t>Vitoxel förekommer i nästan hela Europa. Beståndet i Norge och Sverige är introducerad för länge sedan och arten betraktas i Skandinavien som inhemsk art.</t>
+  </si>
+  <si>
+    <t>Sorbus aria</t>
+  </si>
+  <si>
+    <t>Vitoxel</t>
+  </si>
+  <si>
+    <t>Mispel</t>
+  </si>
+  <si>
+    <t>Mespilus germanica</t>
+  </si>
+  <si>
+    <t>Mispel (Mespilus germanica) är en art i familjen rosväxter. Det är ett lövträd med bred krona och ätliga frukter. Under medeltiden hade trädet större betydelse i Syd- och Centraleuropa och i England var mispel vanlig under 1600- och 1700-talet. Frukten liknar ett äpple men med långa utdragna foderflikar. Frukten är ätlig men anses inte så god då den innehåller mycket garvsyra. Kan mildras något efter frost.</t>
+  </si>
+  <si>
+    <t>Kvitten</t>
+  </si>
+  <si>
+    <t>Cydonia oblonga</t>
+  </si>
+  <si>
+    <t>RosenKvitten</t>
+  </si>
+  <si>
+    <t>Chaenomeles</t>
+  </si>
+  <si>
+    <t>Vanliga trädgårdsväxter. Släktet består av lövfällande buskar, eller i sällsynta fall små träd, ibland med tornar. Blad enkla, tandade. Frukterna är hård och sura och svårätna råa. De slemmiga fröna har används som handbalsam och hårinläggningsmedel. Frukterna kan användas till gele, vin, marmelad eller mos.</t>
+  </si>
+  <si>
+    <t>Kvitten (Cydonia oblonga) är ett lövfällande träd inom familjen rosväxter och ensam art i släktet Cydonia. Dess frukt är lik ett stort äpple, med fastare fruktkött som bland annat används till marmelad. Frukten kan ätas färsk (då måste man slå frukten innan man äter den. Slagen frigör saften. Man skär bitar lagom stora att tugga i. Bäst lyckas man om man håller frukten i sin ena hand och slår med en kavel lite hårt runt hela frukten med den andra) eller kokas till sylt, marmelad eller gelé. E att förväxla med den i Sverige mer vanliga Rosenkvitten.</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1252,7 +1511,7 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,7 +1522,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1281,16 +1540,19 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1307,15 +1569,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1327,15 +1589,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1344,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1370,15 +1632,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1393,41 +1655,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" t="s">
-        <v>83</v>
-      </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1442,15 +1704,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1468,16 +1730,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>67</v>
       </c>
-      <c r="C10" t="s">
-        <v>68</v>
-      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -1497,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1505,7 +1767,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1514,15 +1776,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1537,16 +1799,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>103</v>
-      </c>
       <c r="D13">
         <v>2</v>
       </c>
@@ -1554,16 +1816,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" t="s">
         <v>99</v>
       </c>
-      <c r="B14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>100</v>
-      </c>
       <c r="D14">
         <v>2</v>
       </c>
@@ -1571,15 +1833,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1591,15 +1853,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1613,13 +1875,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1630,13 +1892,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1647,13 +1909,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1676,13 +1938,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1739,13 +2001,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -1762,13 +2024,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1791,13 +2053,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1808,13 +2070,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -1828,13 +2090,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1845,13 +2107,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -1865,13 +2127,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -1888,13 +2150,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1911,13 +2173,13 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -1934,7 +2196,7 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1947,6 +2209,368 @@
       </c>
       <c r="G32">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>131</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>118</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" t="s">
+        <v>142</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>158</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>160</v>
+      </c>
+      <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1955,8 +2579,9 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
+    <hyperlink ref="C41" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6AAF99-020A-424A-A005-9196287564D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C9A57-3A8C-47A0-AFF2-F26928EBDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
   <si>
     <t>Latin Name</t>
   </si>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Heracleum sphondylium</t>
-  </si>
-  <si>
-    <t>Avoid</t>
   </si>
   <si>
     <t>Vildmorot</t>
@@ -381,9 +378,6 @@
     <t>Cicuta virosa</t>
   </si>
   <si>
-    <t>Sprängört är känd för att vara en av de giftigaste örterna som finns i den svenska floran. Hela växten är mycket giftig, men det är i roten och nedre delen av stjälken som giftet finns koncentrerat i växtsaften. De giftiga kemiska föreningarna är cicutoxin och cicutol, som även vid små mängder ger epilepsiliknande krampanfall och kan leda till döden. Framför allt växer den i våtmarker av olika slag, dess utbredning i Norden är över nästan hela regionen utom i fjälltrakter samt längst i norr. Hela växten är mycket giftig, i synnerhet den tjocka rotstammen.</t>
-  </si>
-  <si>
     <t>Hundkäx (Anthriscus sylvestris) är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
   </si>
   <si>
@@ -397,9 +391,6 @@
   </si>
   <si>
     <t>Jättenattljus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mjölke finns i norra halvklotets tempererade områden. Den har många namn såsom rallarros, rävarumpa, praktdua samt mjölke eller mjölkört. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. Alla delar av växten har brukats, små späda skott som sparris, bladen som sallad, spenat eller te. Brygg te på bladen som skärdas inna växten går io blom. Koka förväll eller rosta roten. Kaffesubstitut. Unga stjälkar har torkats och malts till mjöl. </t>
   </si>
   <si>
     <t>Lathyrus linifolius</t>
@@ -592,9 +583,6 @@
     <t>Sorbus aucuparia</t>
   </si>
   <si>
-    <t>Frukterna kallas rönnbär och är små äppelfrukter, med endast 2 eller 3 rum med mycket tunna, mjuka hinnväggar. De mogna rönnbären utgör den viktigaste vinterfödan för många fågelarter, till exempel sidensvans och trastar. Genom fåglarna sprids fröna, och kan då också hamna på tak, murar, bergväggar och uppe i kronorna på större träd. Eftersom rönnbären är beska och syrliga konsumeras de sällan av människor. Rönnbären används till rönnbärsgelé och till att krydda brännvin. På grund av den höga halten av vitamin C användes de mot skörbjugg. Rönnbären innehåller även naturliga antioxidanter i form av polyfenoler. Kyla gör att syrligheten mildras och därför brukar rönnbären plockas först efter första frostnatten. Unga blad ska kunna användas i sallader. Sorbitol kan fabrikframställas av bären.</t>
-  </si>
-  <si>
     <t>Finnoxel</t>
   </si>
   <si>
@@ -647,12 +635,39 @@
   </si>
   <si>
     <t>Kvitten (Cydonia oblonga) är ett lövfällande träd inom familjen rosväxter och ensam art i släktet Cydonia. Dess frukt är lik ett stort äpple, med fastare fruktkött som bland annat används till marmelad. Frukten kan ätas färsk (då måste man slå frukten innan man äter den. Slagen frigör saften. Man skär bitar lagom stora att tugga i. Bäst lyckas man om man håller frukten i sin ena hand och slår med en kavel lite hårt runt hela frukten med den andra) eller kokas till sylt, marmelad eller gelé. E att förväxla med den i Sverige mer vanliga Rosenkvitten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjölke finns i norra halvklotets tempererade områden. Den har många namn såsom rallarros, rävarumpa, praktdua samt mjölke eller mjölkört. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. Alla delar av växten har brukats. Små späda skott som sparris, bladen som sallad, spenat eller te. Te kan bryggas på bladen om de skärdas innan växten går i blom. Roten kan ätas efter kokning eller förvällning. Rostad rot har använts som kaffesubstitut. Unga stjälkar har torkats och malts till mjöl. </t>
+  </si>
+  <si>
+    <t>Frukterna kallas rönnbär och är små äppelfrukter. De mogna rönnbären utgör den viktigaste vinterfödan för många fågelarter. Eftersom rönnbären är beska och syrliga konsumeras de sällan av människor. Rönnbären används till rönnbärsgelé och till att krydda brännvin. På grund av den höga halten av vitamin C användes de historiskt mot skörbjugg. Rönnbären innehåller även naturliga antioxidanter i form av polyfenoler. Kyla gör att syrligheten mildras och därför brukar rönnbären plockas först efter första frostnatten. Unga blad ska kunna användas i sallader. Sorbitol kan fabrikframställas av bären.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprängört är känd för att vara en av de giftigaste örterna som finns i den svenska floran. Hela växten är mycket giftig, men det är i roten och nedre delen av stjälken som giftet finns koncentrerat i växtsaften. Framför allt växer den i våtmarker av olika slag, dess utbredning i Norden är över nästan hela regionen utom i fjälltrakter samt längst i norr. Hela växten är mycket giftig, i synnerhet den tjocka rotstammen. Kan lätt förväxlas med Odört, Vattenmärke samt Hundkäx </t>
+  </si>
+  <si>
+    <t>Vattenmärke</t>
+  </si>
+  <si>
+    <t>Sium latifolium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vattenmärke eller märke (Sium latifolium) är en växtart i familjen flockblommiga växter. Den blommar under sommarens senare del. Sium latifolium anses vara giftig, vilket åtminstone med säkerhet gäller om roten. Örtståndet smakar beskt och skarpt och liktar hartsaktigt. Arten finnes blott i Göta- och Svealand och dessutom vid Finlands s.-ö. gräns. </t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=Toxic,       2=Förväxl,   4=PartToxic   Avoid             </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1138,10 +1153,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1497,10 +1515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="N53" sqref="N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,9 +1527,10 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1542,17 +1561,23 @@
       <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>40</v>
+      <c r="K1" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1569,15 +1594,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1589,15 +1614,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
-        <v>71</v>
-      </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1606,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1632,15 +1657,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1655,41 +1680,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1704,15 +1729,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1730,16 +1755,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>66</v>
       </c>
-      <c r="C10" t="s">
-        <v>67</v>
-      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -1759,7 +1784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1792,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1776,7 +1801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1809,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1799,15 +1824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1816,16 +1841,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" t="s">
         <v>98</v>
       </c>
-      <c r="B14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
       <c r="D14">
         <v>2</v>
       </c>
@@ -1833,15 +1858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>75</v>
-      </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1853,7 +1878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1861,7 +1886,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1881,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1892,13 +1917,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1909,13 +1934,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -1941,10 +1966,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2001,13 +2026,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2024,13 +2049,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2053,13 +2078,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2070,13 +2095,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2090,13 +2115,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2107,13 +2132,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2130,7 +2155,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2179,7 +2204,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2196,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2211,32 +2236,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>105</v>
       </c>
-      <c r="B33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C33" t="s">
-        <v>115</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2251,161 +2279,161 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>114</v>
       </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B37" t="s">
         <v>113</v>
       </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B41" t="s">
+        <v>125</v>
+      </c>
+      <c r="C41" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37" t="s">
-        <v>116</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B42" t="s">
         <v>131</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C38" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>123</v>
-      </c>
-      <c r="B39" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" t="s">
-        <v>121</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C42" t="s">
         <v>132</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" t="s">
-        <v>135</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -2416,161 +2444,211 @@
       <c r="K42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="B43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B45" t="s">
         <v>139</v>
       </c>
-      <c r="B44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
         <v>141</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
         <v>142</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
         <v>147</v>
       </c>
-      <c r="B46" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" t="s">
         <v>150</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="C49" t="s">
         <v>152</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="C50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
         <v>155</v>
       </c>
-      <c r="B49" t="s">
-        <v>154</v>
-      </c>
-      <c r="C49" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>158</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
         <v>162</v>
       </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>160</v>
-      </c>
-      <c r="B51" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
+      <c r="C52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747C9A57-3A8C-47A0-AFF2-F26928EBDDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801ADECC-6A63-4C7F-9F0D-A06A0D82E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plants" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
   <si>
     <t>Latin Name</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Foeniculum vulgare</t>
-  </si>
-  <si>
-    <t>Förvildad</t>
   </si>
   <si>
     <t>Libbsticka</t>
@@ -355,9 +352,6 @@
   </si>
   <si>
     <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, kruspersilja.</t>
-  </si>
-  <si>
-    <t>Brännässla (Urtica dioica) är en art[1] i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika.</t>
   </si>
   <si>
     <t>Björnloka</t>
@@ -660,13 +654,244 @@
   <si>
     <t xml:space="preserve">1=Toxic,       2=Förväxl,   4=PartToxic   Avoid             </t>
   </si>
+  <si>
+    <t>Brännässla (Urtica dioica) är en art i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika. Nässlorna växer i näringsrik jord och lagrar in nitrater vilket gör att vissa anser att man ej bör äta för mycket utav dem. Blad och skott hos unga plantor gör sig bäst efter kokning eller förvällning. Små plantor ska även gå att ätas råa. De kan även blandas i när man gör bröd. Stammen kan användas till att göra rep. Etternässlan kan användas på samma sätt.</t>
+  </si>
+  <si>
+    <t>Etternässla</t>
+  </si>
+  <si>
+    <t>Urtica urens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etternässla (Urtica urens) är en art i familjen nässelväxter som är mindre än brännässlan men kan användas på samma sätt. </t>
+  </si>
+  <si>
+    <t>Paradisäpple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Många paradisäppelträd är en varietet av vildapel. Frukterna är ofta sura men går att äta råa. Paradisäpplen används oftast som prydnadsträd men det går att göra sylt eller marmelad på frukterna som får en pikant smak. </t>
+  </si>
+  <si>
+    <t>Malus sylvestris var. Paradisiaca</t>
+  </si>
+  <si>
+    <t>Malus sylvestris_</t>
+  </si>
+  <si>
+    <t>Vildapel är mycket lik äpple (M. domestica) som dock kan skiljas på sina kortskaftade blad och frukter, samt att foderbladen är håriga.</t>
+  </si>
+  <si>
+    <t>Vildapel</t>
+  </si>
+  <si>
+    <t>Nypon</t>
+  </si>
+  <si>
+    <t>Nyponros</t>
+  </si>
+  <si>
+    <t>1=Förvildad  2=FörvildaB  3=Invasiv Förvildad</t>
+  </si>
+  <si>
+    <t>Vresros</t>
+  </si>
+  <si>
+    <t>Rosa rugosa</t>
+  </si>
+  <si>
+    <t>Rosa_</t>
+  </si>
+  <si>
+    <t>Vresrosen är en 1–2 m hög rosbuske som ofta odlas i parker som häckväxt. Arten är populär på grund av sin härdighet. Den är dock en invasiv främmande art i Sverige enligt Naturvårdsverket. Rosorna kan kokas till dricka, marmelad eller gelé. Efter blommning bildas nyttiga nyponsom innehåller mycket C-vitamin.</t>
+  </si>
+  <si>
+    <t>Rosa dumalis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nypon växer på nyponbuskar som är olika varianter av rosor. Nypon är mycket nyttiga då de innehåller stora mängder C-vitamin. Det finns många olike varianter av nypon men alla kan användas likvärdigt. Nyponte görs genom att koka frukterna i vatten och silar av. Det går även bra att koka marmelad, göra sylt eller soppa på dem men kärna då ur dem ordentligt. </t>
+  </si>
+  <si>
+    <t>Daggkåpa</t>
+  </si>
+  <si>
+    <t>Daggkåpa (Alchemilla vulgaris L) är ett samlingsnamn för en mängd apomiktiska småarter av släktet daggkåpor. Ståndarna är sterila, men obefruktade frön gror ändå, jungfrufödsel. Det innebär att avkomman blir genetiskt identisk med moderplantan och att alla avkomlingar är en och samma individ. Bladen går att äta råa men innehåller garvsyra och kokas därför med fördel. Blad och blommor kan också användas till te.</t>
+  </si>
+  <si>
+    <t>Alchemilla vulgaris</t>
+  </si>
+  <si>
+    <t>Gåsört</t>
+  </si>
+  <si>
+    <t>Argentina anserina</t>
+  </si>
+  <si>
+    <t>Gåsört kallas även silverört eftersom bladen har en silverglänsande undersida. De gula rötterna kan ätas råa eller kokta och smakar likt morrötter. Bladen kan ätas som sallad eller kokas till soppor. Den ska ha ätits i stor utsträckning i Sotrbrittanien innan potatisen slog igenom.</t>
+  </si>
+  <si>
+    <t>Blodrot</t>
+  </si>
+  <si>
+    <t>Potentilla erecta</t>
+  </si>
+  <si>
+    <t>Jordgubbar</t>
+  </si>
+  <si>
+    <t>Jordgubben är inte någon egen egentlig art utan uppkom för några hundra år sedan efter korsningar mellan olika smultronarter i Amerika.</t>
+  </si>
+  <si>
+    <t>Fragaria ananassa</t>
+  </si>
+  <si>
+    <t>Smultron</t>
+  </si>
+  <si>
+    <t>Fragaria vesca</t>
+  </si>
+  <si>
+    <t>Smultron finns i flera närbesläktade arter såsom Backsmultron, Parksmultron och Månadssmultron, men samtliga har ätliga bär. Bäret är en skenfrukt. De verkliga frukterna är små nötter, som i stort antal är utspridda på skenfruktens yta. Det kan bli över 1 000 på ett enda bär. Smultronet är troligen mer ovanligt i Sverige nu än det varit historiskt.</t>
+  </si>
+  <si>
+    <t>Hallon</t>
+  </si>
+  <si>
+    <t>Hallon är en tvåårig buske och finns i npgra olika varianter. Hallon har stark förökning genom rotskott både i vilt och i odlat tillstånd.</t>
+  </si>
+  <si>
+    <t>Rubus idaeus</t>
+  </si>
+  <si>
+    <t>Björnbär</t>
+  </si>
+  <si>
+    <t>Tidigare betraktade man björnbär som en enda art, vilken då kallades Rubus fruticosus. Björnbärskomplexet består av ett stort antal arter, underarter och former, som hör till de mest svårskilda i vår flora. Odlade sorter är dessutom ofta hybrider av olika arter. Björnbär, även kallad svarthallon liknar hallon men är mörkblå till färgen och busken är flerårig. Bären mognar sent på hösten och växer vilt gärna längs kusterna upp till mälardalen.</t>
+  </si>
+  <si>
+    <t>Rubus fruticosus</t>
+  </si>
+  <si>
+    <t>Rubus saxatilis</t>
+  </si>
+  <si>
+    <t>Stenbär</t>
+  </si>
+  <si>
+    <t>Bären har felaktigt fått ett rykte av sig att vara giftiga. Med fördel kokas bären till sylt eller marmelad. Fruktsättningen är oftast alltför sparsam för att insamling och tillagning av dessa frukter skulle löna sig, trots att de är mycket saftiga och rika på en frisk syra. De lämpar sig för sylt och gelé. Stenbär kan förväxlas med åkerbär, Rubus arcticus. De två växterna kan bilda en hybrid om de växer tillsammans. Hybriden kallas bäverbär.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frukten är ett svart, ganska torrt bär, som påminner om blåbär, men är mindre och har större och hårdare kärnor. Bäret är en aning sött, men smaken är i stort fadd. Vissa anser att smaken blir bättre om bären utsatts för frost. Intag av kråkbär kan ha en laxerande effekt. </t>
+  </si>
+  <si>
+    <t>Kråkbär</t>
+  </si>
+  <si>
+    <t>Empetrum nigrum</t>
+  </si>
+  <si>
+    <t>Åkerbär</t>
+  </si>
+  <si>
+    <t>Åkerbär även kallat vikon trivs på öppna slåtterängar eller i gläntor. Blommorna är rosenröda och får röda bär som mognar i augusti. Åkerbär kan förväxlas med den liknande arten stenbär (Rubus saxatilis), med vilken den för övrigt lätt spontant korsar sig med, om dessa arter växer tillsammans. Hybriden kallas bäverbär. Av åkerbär kan göras en delikat sylt.</t>
+  </si>
+  <si>
+    <t>Rubus arcticus</t>
+  </si>
+  <si>
+    <t>Hjortron</t>
+  </si>
+  <si>
+    <t>Hjortron trivs på fuktiga marker, såsom mossar. Lågt pH-värde och mycket sol är gynnsamma faktorer. Hjortronet är känsligt för salta och torra förhållanden. De mogna bären används främst till framställning av sylt, men även till likör, samt bladen till te.</t>
+  </si>
+  <si>
+    <t>Rubus chamaemorus</t>
+  </si>
+  <si>
+    <r>
+      <t>Krikon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prunus domestica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ssp. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>insititia</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en underart till plommon. Frukten är vanligtvis mörkblå till färgen men förekommer också som gula, lila och gröna, ganska rund och mindre än plommon.</t>
+    </r>
+  </si>
+  <si>
+    <t>Prunus domestica ssp. Insititia</t>
+  </si>
+  <si>
+    <t>Krikon</t>
+  </si>
+  <si>
+    <t>Plommon</t>
+  </si>
+  <si>
+    <t>Plommon (Prunus domestica) är ett vanligt fruktträd med ätbar söt stenfrukt.[1] Frukten kan antingen ätas färsk, torkas, användas till sylt eller marmelad. Plommon är inte en naturlig art. Arten togs fram i västra Asien för tusentals år sedan och är antagligen en korsning mellan slån (Prunus spinosa) och körsbärsplommon (Prunus cerasifera).</t>
+  </si>
+  <si>
+    <t>Prunus domestica_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyponros (Rosa dumalis) är en rosbuske, som kan växa sig tre meter hög. Den förväxlas lätt med stenros. Taggarna är tämligen grova och bakåtböjda. Nyponen är kala och ganska mjuka. Nyponrosen är den vanliga vildväxande rosarten i Sverige och är allmän från Skåne till Ångermanland. </t>
+  </si>
+  <si>
+    <t>Blodrot tillhör fingerörterna men avviker genom att blomman endast har 4 gula kronblad. Namnet kommer från den blodrödfärgade roten. Roten är besk och innehåller stora mängder garvsyra men har ändå ätits efter urlakning. Roten har använts som en medicinalväxt.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -812,7 +1037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -992,8 +1217,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1108,6 +1339,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1155,9 +1397,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1515,10 +1757,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N53" sqref="N53"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1528,56 +1771,54 @@
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1594,15 +1835,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1614,15 +1855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1631,7 +1872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1657,7 +1898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1665,7 +1906,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -1680,41 +1921,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" t="s">
-        <v>81</v>
-      </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1729,15 +1970,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -1755,16 +1996,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
       <c r="D10">
         <v>2</v>
       </c>
@@ -1784,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +2033,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1801,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +2050,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1824,15 +2065,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>100</v>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1841,16 +2082,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>97</v>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
-        <v>98</v>
-      </c>
       <c r="D14">
         <v>2</v>
       </c>
@@ -1858,15 +2099,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1878,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1886,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -1906,7 +2147,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1923,7 +2164,7 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1966,10 +2207,10 @@
         <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2026,13 +2267,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2049,13 +2290,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2084,7 +2325,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2095,13 +2336,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2121,7 +2362,7 @@
         <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2132,13 +2373,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2155,7 +2396,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -2204,7 +2445,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2214,20 +2455,17 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>11</v>
+      <c r="A32" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="D32">
         <v>1</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2238,56 +2476,56 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34">
-        <v>2</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2298,56 +2536,62 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="I35">
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
         <v>109</v>
       </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36">
         <v>2</v>
       </c>
-      <c r="M36">
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2358,36 +2602,30 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
+      <c r="I39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2404,162 +2642,165 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
         <v>123</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
         <v>130</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>4</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="C42" t="s">
-        <v>132</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="K42">
-        <v>4</v>
-      </c>
-      <c r="N42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
         <v>135</v>
       </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-      <c r="C43" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="C45" t="s">
         <v>136</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
         <v>137</v>
       </c>
-      <c r="C44" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="C46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
         <v>140</v>
       </c>
-      <c r="B45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" t="s">
         <v>143</v>
       </c>
-      <c r="B46" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="C48" t="s">
         <v>144</v>
-      </c>
-      <c r="B47" t="s">
-        <v>145</v>
-      </c>
-      <c r="C47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B48" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" t="s">
-        <v>147</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2573,13 +2814,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2593,13 +2834,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B50" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2613,51 +2854,416 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
         <v>155</v>
       </c>
-      <c r="C51" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>2</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
         <v>162</v>
       </c>
-      <c r="C52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="N52">
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>172</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>178</v>
+      </c>
+      <c r="C57" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" t="s">
+        <v>222</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>185</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>188</v>
+      </c>
+      <c r="B60" t="s">
+        <v>187</v>
+      </c>
+      <c r="C60" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" t="s">
+        <v>190</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>196</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B64" t="s">
+        <v>198</v>
+      </c>
+      <c r="C64" t="s">
+        <v>199</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" t="s">
+        <v>211</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" t="s">
+        <v>214</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>217</v>
+      </c>
+      <c r="B70" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>221</v>
+      </c>
+      <c r="B71" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+      <c r="N71">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L32">
-    <sortCondition ref="A2:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
+    <sortCondition ref="A2:A33"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="C30" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
-    <hyperlink ref="C41" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
+    <hyperlink ref="C42" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801ADECC-6A63-4C7F-9F0D-A06A0D82E137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BCAF6E-765D-4874-9A24-D42AB6956231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
   <si>
     <t>Latin Name</t>
   </si>
@@ -884,6 +884,125 @@
   </si>
   <si>
     <t>Blodrot tillhör fingerörterna men avviker genom att blomman endast har 4 gula kronblad. Namnet kommer från den blodrödfärgade roten. Roten är besk och innehåller stora mängder garvsyra men har ändå ätits efter urlakning. Roten har använts som en medicinalväxt.</t>
+  </si>
+  <si>
+    <t>Surkörsbär</t>
+  </si>
+  <si>
+    <t>Surkörsbär (Prunus cerasus) är en art i familjen rosväxter. Arten förekommer förvildad i största delen av Europa. Anses fungera bättre till sylt, saft och vin eftersom bäret har starkare arom och hållbarhet än odlade varianter. Går att äta råa men kan vara ganska sura.</t>
+  </si>
+  <si>
+    <t>Prunus cerasus</t>
+  </si>
+  <si>
+    <t>Sötkörsbär eller fågelbär, Prunus avium, är en art i plommonsläktet inom familjen rosväxter. Arten förekommer naturligt i Europa. Det är träd som blir cirka 15–30 meter högt, och den art från vilken de flesta odlade kultivarer av körsbär tagits fram. Det finns i three main variteter såsom Bigarråer, vanlig sötkörsbär</t>
+  </si>
+  <si>
+    <t>Prunus avium</t>
+  </si>
+  <si>
+    <t>Sötkörsbär</t>
+  </si>
+  <si>
+    <t>Prunus padus</t>
+  </si>
+  <si>
+    <t>Hägg</t>
+  </si>
+  <si>
+    <t>Barken och frukterna är rika på amygdalin vilket bittermandelolja kan framställas ur. Bären är sträva ungefär som slånbär men är ätliga. Med fördel kokas saft eller vin på bäret. Kärnorna är svåra att skilja från bäret och används därför sällan till sylt.</t>
+  </si>
+  <si>
+    <t>Slån</t>
+  </si>
+  <si>
+    <t>Den får blå eller blåsvarta stenfrukter som kallas slånbär. Busken, som har vassa tornar, växer vilt i större delen av Europa. I Sverige är den vanlig i södra Sveriges kustlandskap. Bären innehåller garvsyra som ger dem en kärv och sur, nästan bitter smak. När temperaturen sjunker under noll grader omvandlas garvsyran, och slånbärens smak blir sötare och mindre sträv. Det fungerar utmärkt att imitera detta genom att lägga dem i frysen under 1–2 dygn. Bären har länge använts till att koka saft och vin. Bladen och blommorna kan användas till te. Veden är mycket hårt och har använts till sniderier. Barken till garvning av läder.</t>
+  </si>
+  <si>
+    <t>Prunus spinosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brudbröd är lätt igenkänd på de starka och sega rötternas tjocka, kulformiga uppsvällningar, hårda men dock något köttiga knölar, som magasinerar vatten för torra perioder. Brudbrödet är Älgörtens närmaste släkting. Rötterna kan kokas och ätas som potatis. </t>
+  </si>
+  <si>
+    <t>Filipendula vulgaris</t>
+  </si>
+  <si>
+    <t>Brudbröd</t>
+  </si>
+  <si>
+    <t>Älggräs</t>
+  </si>
+  <si>
+    <t>Filipendula ulmaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Älggräs (Filipendula ulmaria L.), älgört, är en ört i släktet älggräs i familjen rosväxter. Den högväxta arten har små vita och starkt doftande blommor. Blommor och blad innehåller acetylsalicylsyra, och arten har använts både i medicinskt syfte och som smaksättning av drycker. Den växer i fuktiga marker såsom diken och skuggiga stränder. Kan finnas i mängder på ängar. Blommor kan användas som te och fungerar mot huvudvärk då den innehåller salicylsyra. </t>
+  </si>
+  <si>
+    <t>Medicinsk</t>
+  </si>
+  <si>
+    <t>Huvudvärk</t>
+  </si>
+  <si>
+    <t>Ribes alpinum</t>
+  </si>
+  <si>
+    <t>Måbär</t>
+  </si>
+  <si>
+    <t>Måbärsbusken är ganska allmän i lundar och skogsbackar, i synnerhet i östra Götaland och Svealand, men finns glest utbredd från Skåne till mellersta Norrland. Han och honblommor sitter på skilda buskar. Liknar vinbär och bären är ätbara, söta men lite fadda i smaken.</t>
+  </si>
+  <si>
+    <t>Röda vinbär</t>
+  </si>
+  <si>
+    <t>Ribes rubrum</t>
+  </si>
+  <si>
+    <t>Ribes nigrum</t>
+  </si>
+  <si>
+    <t>Svarta vinbär</t>
+  </si>
+  <si>
+    <t>Röda vinbär är ett samlingsnamn för trädgårdsvinbär (Ribes rubrum) och skogsvinbär (Ribes spicatum). Ibland har bägge dessa ansetts vara underarter av samma huvudart. Förvildade trädgårdsvinbär kan förekomma i samma områden som skogsvinbär. Vita vinbär är en variant. Bären är sura och kan ätas råa eller kokas till sylt, saft eller gelé. Bären innehåller stora mängder pektin och kan därför användas tillsammans med andra bär för att skapa gelé.</t>
+  </si>
+  <si>
+    <t>Svarta vinbär eller svartvinbär (Ribes nigrum) är en växt som tillhör Vinbärssläktet och familjen ripsväxter. En gammal synonym är tistron. Bären är mycket rika på C-vitamin och anses nyttigare och godare än det röda vinbäret. Används till sylt, saft, vin eller gelé. Bladen kan användas som fläderblommor eller till te och gurkinläggningar.</t>
+  </si>
+  <si>
+    <t>Krusbär</t>
+  </si>
+  <si>
+    <t>Ribes uva-crispa</t>
+  </si>
+  <si>
+    <r>
+      <t>Krusbär (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ribes uva-crispa</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är namnet både på en buske och dess bär. Den dök förmodligen upp i sverige på 1500-talet. Busken har taggiga grenar. Bären kan drabbas av krusbärsmjöldaggen som är en parasitsvamp som täcker in bäret i en brunt ludd och gör den oätlig. Bären används till sylt, saft, gelé eller vin.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1757,11 +1876,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,9 +1891,10 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1817,8 +1937,11 @@
       <c r="N1" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1835,7 +1958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1855,7 +1978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1872,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1898,7 +2021,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -1921,7 +2044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -1947,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>81</v>
       </c>
@@ -1970,7 +2093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -1996,7 +2119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -2025,7 +2148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2042,7 +2165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2065,7 +2188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>98</v>
       </c>
@@ -2082,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -2099,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -2119,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -3135,7 +3258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>203</v>
       </c>
@@ -3155,7 +3278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>204</v>
       </c>
@@ -3172,7 +3295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>209</v>
       </c>
@@ -3189,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>212</v>
       </c>
@@ -3206,7 +3329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>215</v>
       </c>
@@ -3223,7 +3346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>217</v>
       </c>
@@ -3240,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>221</v>
       </c>
@@ -3255,6 +3378,224 @@
       </c>
       <c r="N71">
         <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="C72" t="s">
+        <v>225</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B74" t="s">
+        <v>231</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B75" t="s">
+        <v>233</v>
+      </c>
+      <c r="C75" t="s">
+        <v>234</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B76" t="s">
+        <v>238</v>
+      </c>
+      <c r="C76" t="s">
+        <v>236</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B77" t="s">
+        <v>239</v>
+      </c>
+      <c r="C77" t="s">
+        <v>241</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B78" t="s">
+        <v>245</v>
+      </c>
+      <c r="C78" t="s">
+        <v>246</v>
+      </c>
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>248</v>
+      </c>
+      <c r="B79" t="s">
+        <v>247</v>
+      </c>
+      <c r="C79" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="N79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" t="s">
+        <v>252</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>255</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1BCAF6E-765D-4874-9A24-D42AB6956231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123F5DA-EEEB-486E-8763-9A9BFE9426B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Chenopodium album</t>
-  </si>
-  <si>
-    <t>Vanlighet</t>
   </si>
   <si>
     <t>Våtarv (Stellaria media) är ett mycket vanligt och rikligt förekommande ogräs i världen. I Sverige är våtarv det vanligaste örtogräset.</t>
@@ -403,9 +400,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>Fridlyst</t>
   </si>
   <si>
     <t>Knölvial</t>
@@ -550,9 +544,6 @@
     <t>Harris</t>
   </si>
   <si>
-    <t>Den blir från 40 till 150 cm hög och blommar från maj till juni med orangegula blommor som växer med en till två blommor på cirka två cm långa skaft från bladvecken. Harris växer i form av en kvastlik buske med femkantiga gröna grenar utan tornar. Unga knoppar kan användas i sallad.Stora mängder har orsakat förgiftningar hos djur då den innehåller spartein och isospartein. Har använts som abortframkallande medel.</t>
-  </si>
-  <si>
     <t>Häggmispel är en buske eller ett mindre träd, och blir upp till fem meter hög. Arten är ljuskrävande, men tål vind. Som förvildad hittas den ofta i skogsbryn, lövskogar, vägrenar och dungar i anslutning till gårdar. Till skillnad från flera andra arter i häggmispelsläktet, såsom svensk häggmispel, sen häggmispel och prakthäggmispel, är frukten inte att betrakta som smaklig.</t>
   </si>
   <si>
@@ -689,9 +680,6 @@
   </si>
   <si>
     <t>Nyponros</t>
-  </si>
-  <si>
-    <t>1=Förvildad  2=FörvildaB  3=Invasiv Förvildad</t>
   </si>
   <si>
     <t>Vresros</t>
@@ -970,9 +958,6 @@
     <t>Röda vinbär är ett samlingsnamn för trädgårdsvinbär (Ribes rubrum) och skogsvinbär (Ribes spicatum). Ibland har bägge dessa ansetts vara underarter av samma huvudart. Förvildade trädgårdsvinbär kan förekomma i samma områden som skogsvinbär. Vita vinbär är en variant. Bären är sura och kan ätas råa eller kokas till sylt, saft eller gelé. Bären innehåller stora mängder pektin och kan därför användas tillsammans med andra bär för att skapa gelé.</t>
   </si>
   <si>
-    <t>Svarta vinbär eller svartvinbär (Ribes nigrum) är en växt som tillhör Vinbärssläktet och familjen ripsväxter. En gammal synonym är tistron. Bären är mycket rika på C-vitamin och anses nyttigare och godare än det röda vinbäret. Används till sylt, saft, vin eller gelé. Bladen kan användas som fläderblommor eller till te och gurkinläggningar.</t>
-  </si>
-  <si>
     <t>Krusbär</t>
   </si>
   <si>
@@ -1003,6 +988,21 @@
       </rPr>
       <t>) är namnet både på en buske och dess bär. Den dök förmodligen upp i sverige på 1500-talet. Busken har taggiga grenar. Bären kan drabbas av krusbärsmjöldaggen som är en parasitsvamp som täcker in bäret i en brunt ludd och gör den oätlig. Bären används till sylt, saft, gelé eller vin.</t>
     </r>
+  </si>
+  <si>
+    <t>Svarta vinbär eller svartvinbär (Ribes nigrum) är en växt som tillhör Vinbärssläktet och familjen ripsväxter. En gammal synonym är tistron. Bären är mycket rika på C-vitamin är nyttigare och anses godare än det röda vinbäret. Används till sylt, saft, vin eller gelé. Bladen kan användas precis som fläderblommor men även som te eller gurkinläggningar.</t>
+  </si>
+  <si>
+    <t>Uttalas Har-Ris. Växten blir mellan 40 och 150 cm hög och blommar från maj till juni med orangegula blommor som växer med en till två blommor på cirka två cm långa skaft från bladvecken. Harris växer i form av en kvastlik buske med femkantiga gröna grenar utan tornar. Unga knoppar kan användas i sallad.Stora mängder har orsakat förgiftningar hos djur då den innehåller spartein och isospartein. Har använts som abortframkallande medel.</t>
+  </si>
+  <si>
+    <t>Commonness</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>1=Förvildad  2=FörvildaB  3=Invasiv Feral</t>
   </si>
 </sst>
 </file>
@@ -1879,8 +1879,8 @@
   <dimension ref="A1:O81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A79" sqref="A79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1923,22 +1923,22 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -1960,13 +1960,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -2023,13 +2023,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2046,13 +2046,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -2095,13 +2095,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -2121,13 +2121,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -2156,7 +2156,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2190,13 +2190,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2207,13 +2207,13 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -2224,13 +2224,13 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2244,13 +2244,13 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -2281,13 +2281,13 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -2298,13 +2298,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -2327,13 +2327,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2413,13 +2413,13 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2442,13 +2442,13 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -2459,13 +2459,13 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2479,13 +2479,13 @@
     </row>
     <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2496,13 +2496,13 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2516,13 +2516,13 @@
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>31</v>
-      </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2568,7 +2568,7 @@
         <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2605,7 +2605,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2622,13 +2622,13 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -2642,13 +2642,13 @@
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
         <v>102</v>
       </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
         <v>104</v>
       </c>
-      <c r="B36" t="s">
-        <v>105</v>
-      </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D36">
         <v>2</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2708,13 +2708,13 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -2725,13 +2725,13 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2742,13 +2742,13 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -2811,13 +2811,13 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>252</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2834,13 +2834,13 @@
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -2854,13 +2854,13 @@
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -2877,13 +2877,13 @@
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -2917,13 +2917,13 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -2937,13 +2937,13 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -2957,13 +2957,13 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -3017,13 +3017,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3060,13 +3060,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B56" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3100,13 +3100,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B57" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3126,13 +3126,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3149,13 +3149,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3189,13 +3189,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3206,13 +3206,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3223,13 +3223,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3260,13 +3260,13 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3280,13 +3280,13 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3314,13 +3314,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3331,13 +3331,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3348,13 +3348,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3365,13 +3365,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3382,13 +3382,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C72" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3405,13 +3405,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B73" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B74" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3445,13 +3445,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C75" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -3471,13 +3471,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B76" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C76" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3488,33 +3488,33 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B77" t="s">
+        <v>235</v>
+      </c>
+      <c r="C77" t="s">
+        <v>237</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
         <v>239</v>
-      </c>
-      <c r="C77" t="s">
-        <v>241</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="O77" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B78" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -3528,13 +3528,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B79" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
         <v>247</v>
-      </c>
-      <c r="C79" t="s">
-        <v>251</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3551,13 +3551,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B80" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -3577,13 +3577,13 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B81" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D81">
         <v>2</v>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2123F5DA-EEEB-486E-8763-9A9BFE9426B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBEFA9-5431-4A9E-99E7-0029BEA1CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
   <si>
     <t>Latin Name</t>
   </si>
@@ -964,8 +964,111 @@
     <t>Ribes uva-crispa</t>
   </si>
   <si>
+    <t>Svarta vinbär eller svartvinbär (Ribes nigrum) är en växt som tillhör Vinbärssläktet och familjen ripsväxter. En gammal synonym är tistron. Bären är mycket rika på C-vitamin är nyttigare och anses godare än det röda vinbäret. Används till sylt, saft, vin eller gelé. Bladen kan användas precis som fläderblommor men även som te eller gurkinläggningar.</t>
+  </si>
+  <si>
+    <t>Uttalas Har-Ris. Växten blir mellan 40 och 150 cm hög och blommar från maj till juni med orangegula blommor som växer med en till två blommor på cirka två cm långa skaft från bladvecken. Harris växer i form av en kvastlik buske med femkantiga gröna grenar utan tornar. Unga knoppar kan användas i sallad.Stora mängder har orsakat förgiftningar hos djur då den innehåller spartein och isospartein. Har använts som abortframkallande medel.</t>
+  </si>
+  <si>
+    <t>Commonness</t>
+  </si>
+  <si>
+    <t>Protected</t>
+  </si>
+  <si>
+    <t>1=Förvildad  2=FörvildaB  3=Invasiv Feral</t>
+  </si>
+  <si>
+    <t>Taklök (Sempervivum tectorum) är art i familjen fetbladsväxter från centrala Europa till Balkan. Som odlad är taklök lättskött, tål torka och passar bra i stenpartier. Det finns olika sorter som ser ut som små bollar, kottar eller kronärtskockor. Taklöken har sedan medeltiden med människans hjälp spritts över Europa. I Sverige finns den dokumenterad första gången 1662 och fanns då både i Varberg och på Gotland. Numera förekommer den förvildad i närheten av gamla torpplatser. Bladen används i soppor, stuvningar och liknande.</t>
+  </si>
+  <si>
+    <t>Taklök</t>
+  </si>
+  <si>
+    <t>Sempervivum tectorum</t>
+  </si>
+  <si>
+    <t>Hylotelephium telephium</t>
+  </si>
+  <si>
+    <t>Kärleksört</t>
+  </si>
+  <si>
+    <t>Kärleksörten kan bli cirka 60 cm hög. Den kan stå både i skugga och i sol eftersom dess tjocka blad och rötterna effektivt lagrar vatten inför perioder av torka. Blommorna är svagt rosa, cirka 3–4 mm breda och sitter i täta blomkorgar. Örten odlades förr i tiden bland annat för att lindra brännsår. Både rötter och blad kan användas i tex soppor. Bladen kan ha en frän smak som minskar efter blötläggning.</t>
+  </si>
+  <si>
+    <t>Rosenrot</t>
+  </si>
+  <si>
+    <t>Fjärilskrasse</t>
+  </si>
+  <si>
+    <t>Rhodiola rosea</t>
+  </si>
+  <si>
+    <t>Ingen av arterna Fjärilskrasse eller Indiankrasse förekommer vild i Sverige, men är en mycket vanlig trädgårdsväxt. Hela växten är ätbar men bäst tar man vara på blad, blommor och frukter som med fördel kokas.</t>
+  </si>
+  <si>
+    <t>Tropaeolum peregrinum</t>
+  </si>
+  <si>
+    <t>Harsyra</t>
+  </si>
+  <si>
+    <t>Bladen är ätbara och har en syrlig smak, vilket beror på den höga halten oxalsyra. För mycket oxalsyra kan vara skadligt, så den ska inte ätas i stora mängder. Syran bryter ned kalk vilket gör att stort intag kan leda till kalkbrist.</t>
+  </si>
+  <si>
+    <t>Oxalis acetosella</t>
+  </si>
+  <si>
+    <t>Rosenmalva</t>
+  </si>
+  <si>
+    <t>Malva alcea</t>
+  </si>
+  <si>
+    <t>Myskmalva</t>
+  </si>
+  <si>
+    <t>Malva moschata</t>
+  </si>
+  <si>
+    <t>Förstoppning, Diarré, Hosta</t>
+  </si>
+  <si>
+    <t>Myskmalva (Malva moschata) är en art i familjen malvaväxter. Hela växten är ätlig hos malvorna. Bladen, blommorna och fröna kan användas i sallader och soppa. Den är rik på A-, B- och C-vitamin. Som medicinalväxt är myskmalva mycket använd mot förstoppning och diarré. Den är också bra mot halsont och hosta.</t>
+  </si>
+  <si>
+    <t>Vit Kattost är ett gammalt ogräs, och har tidigare varit vanligt ogräs, särskilt vanligt på sopstackar, vid ladugårdar och svinstior. Genom ändrad djurhållning och minskad användning av naturgödsel har arten gått tillbaka under 1900-talet, den klassades 2015 i Sverige som Sårbar.</t>
+  </si>
+  <si>
+    <t>Vit Kattost</t>
+  </si>
+  <si>
+    <t>Malva pusilla</t>
+  </si>
+  <si>
+    <t>Lind</t>
+  </si>
+  <si>
+    <t>Tilia cordata</t>
+  </si>
+  <si>
+    <t>Rosenrot (Rhodiola rosea, tidigare Sedum rosea) är en art i familjen fetbladsväxter. I Sverige är den vanlig i fjällen, men förekommer i mindre utsträckning även i Hälsingland, Norrbotten och Bohuslän. Den har fått sitt namn eftersom roten luktar som rosor. Ska ha ätits på Grönland. Har används som naturläkemedel för att öka prestation eller bota huvudvärk.</t>
+  </si>
+  <si>
     <r>
-      <t>Krusbär (</t>
+      <t>Rosenmalva</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> eller </t>
     </r>
     <r>
       <rPr>
@@ -976,7 +1079,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ribes uva-crispa</t>
+      <t>rosenkattost</t>
     </r>
     <r>
       <rPr>
@@ -986,23 +1089,210 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>) är namnet både på en buske och dess bär. Den dök förmodligen upp i sverige på 1500-talet. Busken har taggiga grenar. Bären kan drabbas av krusbärsmjöldaggen som är en parasitsvamp som täcker in bäret i en brunt ludd och gör den oätlig. Bären används till sylt, saft, gelé eller vin.</t>
+      <t xml:space="preserve"> (</t>
     </r>
-  </si>
-  <si>
-    <t>Svarta vinbär eller svartvinbär (Ribes nigrum) är en växt som tillhör Vinbärssläktet och familjen ripsväxter. En gammal synonym är tistron. Bären är mycket rika på C-vitamin är nyttigare och anses godare än det röda vinbäret. Används till sylt, saft, vin eller gelé. Bladen kan användas precis som fläderblommor men även som te eller gurkinläggningar.</t>
-  </si>
-  <si>
-    <t>Uttalas Har-Ris. Växten blir mellan 40 och 150 cm hög och blommar från maj till juni med orangegula blommor som växer med en till två blommor på cirka två cm långa skaft från bladvecken. Harris växer i form av en kvastlik buske med femkantiga gröna grenar utan tornar. Unga knoppar kan användas i sallad.Stora mängder har orsakat förgiftningar hos djur då den innehåller spartein och isospartein. Har använts som abortframkallande medel.</t>
-  </si>
-  <si>
-    <t>Commonness</t>
-  </si>
-  <si>
-    <t>Protected</t>
-  </si>
-  <si>
-    <t>1=Förvildad  2=FörvildaB  3=Invasiv Feral</t>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Malva alcea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en art i familjen malvaväxter. Den är en av de storblommigaste inom malvasläktet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Rötterna är långsmala och ger inte så mycket föda men går att äta.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Lind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Tilia cordata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mill., även kallad </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>skogslind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är ett ädellövträd inom släktet lindar och familjen malvaväxter. Bladskotten kan ätas som sallad. Te på lindblommor har en honungsliknande smak.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Lindbast kan användas till att göra rep.</t>
+    </r>
+  </si>
+  <si>
+    <t>Fyrkantig johannesört (Hypericum maculatum) är en art i familjen johannesörtsväxter. Arten är en 40–70 centimeter hög, flerårig ört med gula blommor. På grund av fyra ribbor längs stjälken är denna nästan fyrkantig i genomskärning. Samtliga sorter av johannesört kan användas på samma sätt och bildar en stark röd förg om man krossar blomman. Blad kan användas till te eller sallad. Brukar användas till kryddning av brännvin.</t>
+  </si>
+  <si>
+    <t>Hypericum maculatum</t>
+  </si>
+  <si>
+    <t>Fyrkantig johannesört</t>
+  </si>
+  <si>
+    <t>Hypericum perforatum</t>
+  </si>
+  <si>
+    <t>Äkta johannesört</t>
+  </si>
+  <si>
+    <t>Viola odorata</t>
+  </si>
+  <si>
+    <t>Luktviol</t>
+  </si>
+  <si>
+    <t>Luktviol (Viola odorata) är en art i familjen violväxt som är ursprunglig i Europa, Medelhavsområdet och på Azorerna och Madeira. I Sverige anses den vara inhemsk på Öland och på ett par ställen i Skåne, men den har förvildats och förekommer i naturen i hela södra och mellersta Sverige. Bladen kan användas som spenat och blommerna kan kokas till sylt, gelé eller saft. Släktingarna åkerviol och styvmosrviolen kan förmodligen användas på samma sätt.</t>
+  </si>
+  <si>
+    <t>Finnig hud</t>
+  </si>
+  <si>
+    <t>Styvmorsviol</t>
+  </si>
+  <si>
+    <t>Viola tricolor</t>
+  </si>
+  <si>
+    <t>Styvmorsviol (Viola tricolor) är en ört inom familjen violväxter med flerfärgad krona. Styvmorsviol är Ångermanlands landskapsblomma. Avkok av torkade blad och blombärande delar kan användas till tvättning av finnig hy och behandling av mjölkskorv hos barn. Ur torkade växtdelar kan utvinnas salicylsyra. Ger vid växtfärgning gula, gröna och blågröna nyanser. Kan troligen ätas såsom Luktviolen men speciellt frön och rötter innehåller en kräkningsframkallande alkaloid.</t>
+  </si>
+  <si>
+    <t>Pepparrot</t>
+  </si>
+  <si>
+    <t>Armoracia rusticana</t>
+  </si>
+  <si>
+    <t>Pepparrot (Armoracia rusticana) är en flerårig ört som odlas för sin rot, vilken används som krydda. Roten har en pepparaktig smak, eftersom den innehåller senapsliknande ämnen. Som kulturväxt har pepparroten en lång historia, och odlingar av pepparrot är kända sedan medeltiden. Ofta kan den finnas längs med vägar. Rötterna smakar starkt men innehåller även C-vitamin. Även bladen har stark kryddsmak och kan användas till att krydda en sallad.</t>
+  </si>
+  <si>
+    <t>Oljedådra</t>
+  </si>
+  <si>
+    <t>Camelina sativa</t>
+  </si>
+  <si>
+    <t>Vägsenap</t>
+  </si>
+  <si>
+    <t>Sisymbrium officinale</t>
+  </si>
+  <si>
+    <t>Vägsenap (Sisymbrium officinale) är en växtart i familjen korsblommiga växter. Det är ett vanligt ogräs vid hagar och längs vägar. Hela örten har en stark senapssmak och ska kunna användas som krydda.</t>
+  </si>
+  <si>
+    <t>Löktrav växer helst i skugga och i mullrik jord under träd. Stjälken blir upp till en meter hög och har relativt stora, äggrunt hjärtlika, grovt och ojämnt trubbtandade blad, och har en jämntoppad samling av vita blommor.  Hela örten luktar och smakar vitlök. Växten användes förr i folkmedicinen för en mängd olika sjukdomar, såsom mot andtäppa och som urindrivande medel. Den späda örten kan ätas som sallad. Sedan stenåldern har den även använts som krydda.</t>
+  </si>
+  <si>
+    <t>Löktrav</t>
+  </si>
+  <si>
+    <t>Alliaria petiolata</t>
+  </si>
+  <si>
+    <t>Sommargyllen</t>
+  </si>
+  <si>
+    <t>Sommargyllen (Barbarea vulgaris) är en två- eller flerårig ört i släktet gyllnar och familjen korsblommiga växter. Växer ofta vid vägkanter och på odlad mark. Ska kunna grävas fram ur snön och användas som sallad tidigt på våren. Bladen äts som sallad hos små plantor. Innehåller mycket C-Vitamin. Blommorna kan skördas och kokas som broccoli eller användas i sallad.</t>
+  </si>
+  <si>
+    <t>Barbarea vulgaris</t>
+  </si>
+  <si>
+    <t>Ängsbrässma</t>
+  </si>
+  <si>
+    <t>Cardamine pratensis</t>
+  </si>
+  <si>
+    <t>Ängsbräsma (Cardamine pratensis) är en art i familjen korsblommiga växter som förekommer naturligt från Europa till nordöstra Asien, Japan, norra Nordamerika och Grönland. Arten förekommer i hela Sverige. Smakar likt krasse och små blad samt blommor passar som sallad, spenat eller i soppor. Frön kan användas som krydda. Varianterna Kärrbräsma eller bergbrässman kan trolien användas på likande sätt.</t>
+  </si>
+  <si>
+    <t>Cochlearia officinalis</t>
+  </si>
+  <si>
+    <t>Skörbjuggsört</t>
+  </si>
+  <si>
+    <t>Oljan har i Sverige förr använts både i lampor och som matolja. Växtens frön användes troligen som matväxt under brånsåldern.</t>
+  </si>
+  <si>
+    <t>Krusbär (Ribes uva-crispa) är namnet både på en buske och dess bär. Den dök förmodligen upp i sverige på 1500-talet. Busken har taggiga grenar. Bären kan drabbas av krusbärsmjöldaggen som är en parasitsvamp som täcker in bäret i en brunt ludd och gör den oätlig. Bären används till sylt, saft, gelé eller vin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Äkta johannesört (Hypericum perforatum) är en johannesörtsväxtart. Samtliga sorter av johannesört kan användas på samma sätt och bildar en stark röd förg om man krossar blomman. Blad kan användas till te eller sallad. Brukar användas till kryddning av brännvin. Även fotosensibilisering kan uppstå och intag kan störa ut andra läkemedel i kroppen så använd med försiktighet. </t>
+  </si>
+  <si>
+    <t>Skörbjuggsört (Cochlearia officinalis) är en två- eller flerårig ört inom släktet skörbjuggsörter och familjen korsblommiga växter. Underarten vanlig skörbjuggsört, ssp. officinalis, är vanlig på kustnära, öppen, stenig eller grusig mark och kan påträffas på exempelvis havsstrandängar, klippor, tångvallar och fågelberg. Dess utbredning i Norden är hela Norges kust, Sveriges västkust och del av östkust. Små blad kan ätas som sallad och har en senapslikanande smak och innehåller en del C-vitamin. Blad och stjälkar kan kokas till soppa. Förr konserverades örten och såldes som finnmarkskål.</t>
   </si>
 </sst>
 </file>
@@ -1876,11 +2166,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +2195,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1929,10 +2219,10 @@
         <v>161</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>160</v>
@@ -2817,7 +3107,7 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3359,6 +3649,9 @@
       <c r="D70">
         <v>2</v>
       </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
       <c r="N70">
         <v>1</v>
       </c>
@@ -3376,6 +3669,9 @@
       <c r="D71">
         <v>2</v>
       </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
       <c r="N71">
         <v>1</v>
       </c>
@@ -3404,7 +3700,7 @@
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>224</v>
       </c>
       <c r="B73" t="s">
@@ -3424,7 +3720,7 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>226</v>
       </c>
       <c r="B74" t="s">
@@ -3444,7 +3740,7 @@
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>231</v>
       </c>
       <c r="B75" t="s">
@@ -3470,7 +3766,7 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>233</v>
       </c>
       <c r="B76" t="s">
@@ -3507,7 +3803,7 @@
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>240</v>
       </c>
       <c r="B78" t="s">
@@ -3557,7 +3853,7 @@
         <v>246</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -3575,7 +3871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>249</v>
       </c>
@@ -3583,7 +3879,7 @@
         <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3596,6 +3892,421 @@
       </c>
       <c r="N81">
         <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" t="s">
+        <v>255</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>258</v>
+      </c>
+      <c r="B83" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
+        <v>260</v>
+      </c>
+      <c r="D83">
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>263</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>280</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>265</v>
+      </c>
+      <c r="B85" t="s">
+        <v>262</v>
+      </c>
+      <c r="C85" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" t="s">
+        <v>267</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>270</v>
+      </c>
+      <c r="B87" t="s">
+        <v>269</v>
+      </c>
+      <c r="C87" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>277</v>
+      </c>
+      <c r="B89" t="s">
+        <v>276</v>
+      </c>
+      <c r="C89" t="s">
+        <v>275</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>279</v>
+      </c>
+      <c r="B90" t="s">
+        <v>278</v>
+      </c>
+      <c r="C90" t="s">
+        <v>282</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>284</v>
+      </c>
+      <c r="B91" t="s">
+        <v>285</v>
+      </c>
+      <c r="C91" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" t="s">
+        <v>289</v>
+      </c>
+      <c r="C93" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>293</v>
+      </c>
+      <c r="B94" t="s">
+        <v>292</v>
+      </c>
+      <c r="C94" t="s">
+        <v>294</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" t="s">
+        <v>295</v>
+      </c>
+      <c r="C95" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95">
+        <v>2</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>299</v>
+      </c>
+      <c r="B96" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" t="s">
+        <v>314</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" t="s">
+        <v>304</v>
+      </c>
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" t="s">
+        <v>306</v>
+      </c>
+      <c r="C99" t="s">
+        <v>307</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>310</v>
+      </c>
+      <c r="B100" t="s">
+        <v>309</v>
+      </c>
+      <c r="C100" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" t="s">
+        <v>313</v>
+      </c>
+      <c r="C101" t="s">
+        <v>317</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FBEFA9-5431-4A9E-99E7-0029BEA1CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF718AE-1845-48EA-B8D3-3559A1FF81E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
   <si>
     <t>Latin Name</t>
   </si>
@@ -619,9 +619,6 @@
     <t>Vanliga trädgårdsväxter. Släktet består av lövfällande buskar, eller i sällsynta fall små träd, ibland med tornar. Blad enkla, tandade. Frukterna är hård och sura och svårätna råa. De slemmiga fröna har används som handbalsam och hårinläggningsmedel. Frukterna kan användas till gele, vin, marmelad eller mos.</t>
   </si>
   <si>
-    <t>Kvitten (Cydonia oblonga) är ett lövfällande träd inom familjen rosväxter och ensam art i släktet Cydonia. Dess frukt är lik ett stort äpple, med fastare fruktkött som bland annat används till marmelad. Frukten kan ätas färsk (då måste man slå frukten innan man äter den. Slagen frigör saften. Man skär bitar lagom stora att tugga i. Bäst lyckas man om man håller frukten i sin ena hand och slår med en kavel lite hårt runt hela frukten med den andra) eller kokas till sylt, marmelad eller gelé. E att förväxla med den i Sverige mer vanliga Rosenkvitten.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mjölke finns i norra halvklotets tempererade områden. Den har många namn såsom rallarros, rävarumpa, praktdua samt mjölke eller mjölkört. Den är vanlig längs banvallar, på hyggen och diken i hela Sverige, ända upp på kalfjället. Alla delar av växten har brukats. Små späda skott som sparris, bladen som sallad, spenat eller te. Te kan bryggas på bladen om de skärdas innan växten går i blom. Roten kan ätas efter kokning eller förvällning. Rostad rot har använts som kaffesubstitut. Unga stjälkar har torkats och malts till mjöl. </t>
   </si>
   <si>
@@ -866,9 +863,6 @@
   </si>
   <si>
     <t>Prunus domestica_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nyponros (Rosa dumalis) är en rosbuske, som kan växa sig tre meter hög. Den förväxlas lätt med stenros. Taggarna är tämligen grova och bakåtböjda. Nyponen är kala och ganska mjuka. Nyponrosen är den vanliga vildväxande rosarten i Sverige och är allmän från Skåne till Ångermanland. </t>
   </si>
   <si>
     <t>Blodrot tillhör fingerörterna men avviker genom att blomman endast har 4 gula kronblad. Namnet kommer från den blodrödfärgade roten. Roten är besk och innehåller stora mängder garvsyra men har ändå ätits efter urlakning. Roten har använts som en medicinalväxt.</t>
@@ -1293,6 +1287,15 @@
   </si>
   <si>
     <t>Skörbjuggsört (Cochlearia officinalis) är en två- eller flerårig ört inom släktet skörbjuggsörter och familjen korsblommiga växter. Underarten vanlig skörbjuggsört, ssp. officinalis, är vanlig på kustnära, öppen, stenig eller grusig mark och kan påträffas på exempelvis havsstrandängar, klippor, tångvallar och fågelberg. Dess utbredning i Norden är hela Norges kust, Sveriges västkust och del av östkust. Små blad kan ätas som sallad och har en senapslikanande smak och innehåller en del C-vitamin. Blad och stjälkar kan kokas till soppa. Förr konserverades örten och såldes som finnmarkskål.</t>
+  </si>
+  <si>
+    <t>Kvitten (Cydonia oblonga) är ett lövfällande träd inom familjen rosväxter och ensam art i släktet Cydonia. Dess frukt är lik ett stort äpple, med fastare fruktkött som bland annat används till marmelad. Frukten kan ätas färsk (då måste man slå frukten innan man äter den. Slagen frigör saften. Man skär bitar lagom stora att tugga i. Bäst lyckas man om man håller frukten i sin ena hand och slår med en kavel lite hårt runt hela frukten med den andra) eller kokas till sylt, marmelad eller gelé. Ej att förväxla med den i Sverige mer vanliga Rosenkvitten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nyponros (Rosa dumalis) är en rosbuske, som kan växa sig tre meter hög. Den förväxlas lätt med stenros. Taggarna är tämligen grova och bakåtböjda. Nyponen är kala och ganska mjuka. Nyponrosen är den vanligaste vildväxande rosarten i Sverige och är allmän från Skåne till Ångermanland. </t>
+  </si>
+  <si>
+    <t>Army</t>
   </si>
 </sst>
 </file>
@@ -2166,11 +2169,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I82" sqref="I82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,7 +2187,7 @@
     <col min="15" max="15" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2216,22 +2219,25 @@
         <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -2248,7 +2254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2311,7 +2317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>46</v>
       </c>
@@ -2334,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -2360,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>70</v>
       </c>
@@ -2409,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2438,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2446,7 +2452,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2454,8 +2460,11 @@
       <c r="E11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2478,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>97</v>
       </c>
@@ -2486,7 +2495,7 @@
         <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2495,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>94</v>
       </c>
@@ -2512,7 +2521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2869,13 +2878,13 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B32" t="s">
+        <v>162</v>
+      </c>
+      <c r="C32" t="s">
         <v>164</v>
-      </c>
-      <c r="B32" t="s">
-        <v>163</v>
-      </c>
-      <c r="C32" t="s">
-        <v>165</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2895,7 +2904,7 @@
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3107,7 +3116,7 @@
         <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3173,7 +3182,7 @@
         <v>134</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3273,7 +3282,7 @@
         <v>148</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
+        <v>316</v>
       </c>
       <c r="D51">
         <v>2</v>
@@ -3307,13 +3316,13 @@
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" t="s">
         <v>158</v>
-      </c>
-      <c r="B53" t="s">
-        <v>157</v>
-      </c>
-      <c r="C53" t="s">
-        <v>159</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3327,13 +3336,13 @@
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" t="s">
         <v>166</v>
-      </c>
-      <c r="C54" t="s">
-        <v>167</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3350,13 +3359,13 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" t="s">
         <v>169</v>
-      </c>
-      <c r="B55" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" t="s">
-        <v>170</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3370,13 +3379,13 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3390,13 +3399,13 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D57">
         <v>2</v>
@@ -3416,13 +3425,13 @@
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C58" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -3439,13 +3448,13 @@
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B59" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" t="s">
         <v>180</v>
-      </c>
-      <c r="C59" t="s">
-        <v>181</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3459,13 +3468,13 @@
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>183</v>
-      </c>
-      <c r="C60" t="s">
-        <v>185</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3479,13 +3488,13 @@
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3496,13 +3505,13 @@
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
         <v>188</v>
-      </c>
-      <c r="C62" t="s">
-        <v>189</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3513,13 +3522,13 @@
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" t="s">
+        <v>190</v>
+      </c>
+      <c r="C63" t="s">
         <v>192</v>
-      </c>
-      <c r="B63" t="s">
-        <v>191</v>
-      </c>
-      <c r="C63" t="s">
-        <v>193</v>
       </c>
       <c r="D63">
         <v>2</v>
@@ -3530,13 +3539,13 @@
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
+        <v>193</v>
+      </c>
+      <c r="C64" t="s">
         <v>194</v>
-      </c>
-      <c r="C64" t="s">
-        <v>195</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3550,13 +3559,13 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B65" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" t="s">
         <v>197</v>
-      </c>
-      <c r="C65" t="s">
-        <v>198</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3570,13 +3579,13 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>199</v>
+      </c>
+      <c r="B66" t="s">
         <v>200</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>201</v>
-      </c>
-      <c r="C66" t="s">
-        <v>202</v>
       </c>
       <c r="D66">
         <v>2</v>
@@ -3587,13 +3596,13 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -3604,13 +3613,13 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
         <v>206</v>
-      </c>
-      <c r="C68" t="s">
-        <v>207</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -3621,13 +3630,13 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
+        <v>208</v>
+      </c>
+      <c r="C69" t="s">
         <v>209</v>
-      </c>
-      <c r="C69" t="s">
-        <v>210</v>
       </c>
       <c r="D69">
         <v>2</v>
@@ -3638,13 +3647,13 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" t="s">
         <v>213</v>
       </c>
-      <c r="B70" t="s">
-        <v>214</v>
-      </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3658,13 +3667,13 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" t="s">
+        <v>214</v>
+      </c>
+      <c r="C71" t="s">
         <v>215</v>
-      </c>
-      <c r="C71" t="s">
-        <v>216</v>
       </c>
       <c r="D71">
         <v>2</v>
@@ -3678,13 +3687,13 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B72" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -3701,13 +3710,13 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B73" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -3721,13 +3730,13 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>224</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
         <v>226</v>
-      </c>
-      <c r="B74" t="s">
-        <v>227</v>
-      </c>
-      <c r="C74" t="s">
-        <v>228</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -3741,13 +3750,13 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -3767,13 +3776,13 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -3784,33 +3793,33 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
         <v>235</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
         <v>237</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="O77" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
         <v>240</v>
-      </c>
-      <c r="B78" t="s">
-        <v>241</v>
-      </c>
-      <c r="C78" t="s">
-        <v>242</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -3824,13 +3833,13 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C79" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D79">
         <v>2</v>
@@ -3847,13 +3856,13 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B80" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C80" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -3873,13 +3882,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D81">
         <v>2</v>
@@ -3896,13 +3905,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D82">
         <v>2</v>
@@ -3916,13 +3925,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" t="s">
         <v>258</v>
-      </c>
-      <c r="B83" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" t="s">
-        <v>260</v>
       </c>
       <c r="D83">
         <v>2</v>
@@ -3936,13 +3945,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -3953,13 +3962,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C85" t="s">
         <v>262</v>
-      </c>
-      <c r="C85" t="s">
-        <v>264</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -3970,13 +3979,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -3990,13 +3999,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B87" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -4007,45 +4016,45 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>270</v>
+      </c>
+      <c r="B88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" t="s">
         <v>272</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="O88" t="s">
         <v>271</v>
-      </c>
-      <c r="C88" t="s">
-        <v>274</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="O88" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4068,13 +4077,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -4091,13 +4100,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C91" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D91">
         <v>2</v>
@@ -4111,13 +4120,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -4131,13 +4140,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" t="s">
         <v>288</v>
-      </c>
-      <c r="B93" t="s">
-        <v>289</v>
-      </c>
-      <c r="C93" t="s">
-        <v>290</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4151,30 +4160,30 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B94" t="s">
+        <v>290</v>
+      </c>
+      <c r="C94" t="s">
         <v>292</v>
       </c>
-      <c r="C94" t="s">
-        <v>294</v>
-      </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
+        <v>293</v>
+      </c>
+      <c r="C95" t="s">
         <v>295</v>
-      </c>
-      <c r="C95" t="s">
-        <v>297</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -4185,13 +4194,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4202,13 +4211,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B97" t="s">
+        <v>298</v>
+      </c>
+      <c r="C97" t="s">
         <v>300</v>
-      </c>
-      <c r="C97" t="s">
-        <v>302</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4225,13 +4234,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B98" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -4242,13 +4251,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B99" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4262,13 +4271,13 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C100" t="s">
         <v>309</v>
-      </c>
-      <c r="C100" t="s">
-        <v>311</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -4285,13 +4294,13 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C101" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D101">
         <v>2</v>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF718AE-1845-48EA-B8D3-3559A1FF81E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835DB4A-E982-4B9E-8AA1-4AFDC15FE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
   <si>
     <t>Latin Name</t>
   </si>
@@ -345,9 +345,6 @@
     <t>Hela växten är mycket giftig, särskilt fröna. Förtäring medför kraftigt illamående, kräkning, diarré, stark salivavsöndring, muskelryckningar, smärta i buken och muskler, svårighet att röra på armarna och benen, sluddrande tal, dvala. Många av följderna liknar dem hos epilepsi. Förgiftningar behandlas med magpumpning och därefter dryck.</t>
   </si>
   <si>
-    <t>Kaveldunsläktet (Typha) är ett släkte i familjen kaveldunsväxter. Släktet har 8–15 arter som förekommer i nästan hela världen. Släktet beskrevs först av Carl von Linné. I Sverige finns arterna bredkaveldun (T. latifolia) och smalkaveldun (T. angustifolia)</t>
-  </si>
-  <si>
     <t>Mycket lätt att förväxla med Vildpersilja som är mycket giftig. Undvik. Persilja är en tvåårig växt som blommar det andra året. Första året blir det bara en liten marknära bladrosett. Persilja är mycket rik på karoten (som omvandlas till A-vitamin i kroppen), B-vitaminer och C-vitamin samt järn och kalcium. Den är robust och tålig. Kan bli upp till 70 cm hög. Bladen är upprepat parflikiga. Det förekommer även framodlade sorter med starkt krusiga blad, kruspersilja.</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
   </si>
   <si>
     <t>Cicuta virosa</t>
-  </si>
-  <si>
-    <t>Hundkäx (Anthriscus sylvestris) är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium).</t>
   </si>
   <si>
     <t>Havtorn</t>
@@ -1296,6 +1290,249 @@
   </si>
   <si>
     <t>Army</t>
+  </si>
+  <si>
+    <t>Ormrot</t>
+  </si>
+  <si>
+    <t>Bistorta vivipara</t>
+  </si>
+  <si>
+    <t>Ormrot (Bistorta vivipara) är en art i familjen slideväxter. Den finns i hela Sverige men är lite mindre vanlig i södra Sverige. Den trivs på hedar och ängar och är flerårig. Den har vita blommor och avlånga blad. Rotknölarna innehåller 24 procent kolhydrater och groddknopparna innehåller 17 procent kolhydrater. Dessa har en nötliknande smak och kan ätas färska men bör kokas i 15 minuter. De kan också användas som mjöl. Bladen är en källa till C-vitamin och kan ätas färska. Groddknopparna består av en liten mörkröd knölstam och en knopp och är ätliga. Ormrot betraktas som en av de 14 viktigaste vildväxterna i en överlevnadssituation.</t>
+  </si>
+  <si>
+    <t>Ullkardborre</t>
+  </si>
+  <si>
+    <t>Arctium tomentosum</t>
+  </si>
+  <si>
+    <t>Arctium minus</t>
+  </si>
+  <si>
+    <t>Liten Kardborre</t>
+  </si>
+  <si>
+    <t>Liten Kardborre kan användas på liknande sätt som Ullkardborren.</t>
+  </si>
+  <si>
+    <t>Stor Kardborre</t>
+  </si>
+  <si>
+    <t>Arctium lappa</t>
+  </si>
+  <si>
+    <t>Stor Kardborre kan användas på liknande sätt som Ullkardborren.</t>
+  </si>
+  <si>
+    <t>Ullkardborre (Arctium tomentosum) är en två-årig art i familjen korgblommiga växter. Det är en storväxt och robust ört, 50 - 150 cm hög. Roten innehåller ca 21% kolhydrater och kan ätas färsk, även om kokt är att föredra. Näringsvärdet är högst under hösten och vintern (september till maj). Ullkardborre betraktas som en av de 14 viktigaste vildväxterna i en överlevnadssituation. Om roten hackas och därefter kokas i flera timmar, ökar halten av tillgängliga kolhydrater då inulin brytes ned. Roten kan då sägas bestå av 80% tillgängliga kolhydrater. Blomstjälkarna kan skördas innan blommorna slår ut och om man skalar bort det trådiga skalet finner man en vit fin märg. Koka märgen och använd som sparris.</t>
+  </si>
+  <si>
+    <t>Tussilago</t>
+  </si>
+  <si>
+    <t>Tussilago är det latinska namnet för Hästhov och placeras idag som ensam art i släktet hästhovar (Tussilago). Bladen har historiskt använts som hostmedel som te eller tobak. Numera rekommenderas inte växten eftersom man upptäckt att den innehåller cancerframkallande ämnen.</t>
+  </si>
+  <si>
+    <t>Gråbo</t>
+  </si>
+  <si>
+    <t>Artemisia vulgaris</t>
+  </si>
+  <si>
+    <t>Malört</t>
+  </si>
+  <si>
+    <t>Artemisia absinthium</t>
+  </si>
+  <si>
+    <t>Kamomill</t>
+  </si>
+  <si>
+    <t>Allergy</t>
+  </si>
+  <si>
+    <t>Kamomill, Matricaria recutita, är en art i växtsläktet kamomiller. Den finns både vild och odlad. Kamomill kan lätt förväxlas med baldersbrå men har en sötaktig kryddig doft som baldersbrå saknar. Kamomill har historiskt använts som förkylningsmedel som te och innehåller salicylsyra. Kan i stora mängder vara kräkningsframkallande. Kan vara starkt allergiframkallande.</t>
+  </si>
+  <si>
+    <t>Matricaria recutita</t>
+  </si>
+  <si>
+    <t>Tripleurospermum indorum</t>
+  </si>
+  <si>
+    <t>Baldersbrå</t>
+  </si>
+  <si>
+    <t>Baldersbrå, Tripleurospermum indorum, är en korgblommig ört som förekommer i Eurasien, Nordafrika och Nordamerika. Förväxlas lätt med Kamomill eller prästkrage men känns igen på att bladen är tunna och liknar dill. Växten klassas inte som en giftig växt men har inte så mycket att tillföra i ätlig väg.</t>
+  </si>
+  <si>
+    <t>Renfana</t>
+  </si>
+  <si>
+    <t>Renfana liknar prästkrage, men dess kantblommor har en helt annorlunda formad krona. Hela örten har besk smak och stark kryddlukt. Man kan använda både blommor och blad som krydda i brännvin. Renfana ska ha en konserverande effekt och kan gnidas in i kött för att öka hållbarheten. Innehåller giftet thujon och bör därför användas sparsamt. Renfanan har också använts för att färga ylle i en gulgrön nyans.</t>
+  </si>
+  <si>
+    <t>Tanacetum vulgare</t>
+  </si>
+  <si>
+    <t>Gråbo (Artemisia vulgaris) är en växtart i släktet malörter och familjen korgblommiga växter. Namnet Gråbo kommer från att bladens undersida är vitgrå och ska ha kallats så sedan medeltiden. Blommorna har använts som krydda och ska ha använts för att krydda absint.  Allergi mot gråbopollen är inte ovanligt i Sverige men förekommer i lägre frekvens än björk- och gräspollenallergi. På grund av korsallergi kan gråboallergiker reagera mot andra växter i familjen såsom malört, maskros och prästkrage. Den har sedan länge använts som medicinalväxt, framför allt vid aborter och förlossningar, och sägs även lindra epilepsi samt motverka inälvsmask och aptitlöshet.</t>
+  </si>
+  <si>
+    <t>Äkta malört, bitter malört, eller bara malört (Artemisia absinthium), är en art i släktet malörter (Artemisia) och familjen korgblommiga växter och är en släkting till dragon. Namnet malört kommer från att den använts för att bekämpa skadeinsekter såsom mal. I Sverige återfinns den främst i Götaland och Svealand. Den är mindre allmän från Skåne till Gästrikland och blir norr därom sällsynt upp till Jämtland och längs kusten upp till Norrbotten. De har en mjuk, silvergrå behåring både ovanpå och undertill, vilket ger dem en grågrön färg. Hela växten smakar bittert, och vid gnidning avger bladen en stark och angenäm doft. Växten innehåller tujon. I små doser fungerar detta ämne stimulerande, men i större doser är det giftigt, och även mindre doser av örten har visat sig kunna orsaka nervsjukdom, konvulsioner eller sömnsvårigheter. Brännvinet beska droppar har smaksatts med Malört.</t>
+  </si>
+  <si>
+    <t>Björk</t>
+  </si>
+  <si>
+    <t>I Sverige växer tre arter björk – vårtbjörk, glasbjörk och dvärgbjörk. Det är i regel de två första man tänker på när man på svenska talar om "björk". BJörksav kan tappas på våren innan bladen slår ut. Saven kan drickas direkt eller användas i matlagning eller kokas till björksirap. Björklöv kan också användas till färgning av ullgarn i gulgröna färgtoner. Björkbark färgar gar rödbrunt. Björklöv och björkaska kan användas som tvål eller tvättmedel.</t>
+  </si>
+  <si>
+    <t>Betula</t>
+  </si>
+  <si>
+    <t>Sap</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Juniperus communis</t>
+  </si>
+  <si>
+    <t>Hundkäx (Anthriscus sylvestris) är en allmänt förekommande växt som tillhör släktet småkörvlar (Anthriscus). I Sverige förekommer hundkäx allmänt i hela landet och utgör den mest förekommande arten ur familjen flockblommiga växter. Stundtals går den till och med att återfinna ovanför trädgränsen, dock enbart tillfälligt. Hundkäx kan framförallt sammanblandas med spansk körvel (Myrrhis odorata), odört (Conium maculatum) samt vildpersilja (Aethusa cynapium). Roten är näringsrik ända tills växten blommar, vilket den gör på sommaren det andra året. Roten bör förvällas upp till tre gånger.</t>
+  </si>
+  <si>
+    <t>Kaveldunsläktet (Typha) är ett släkte i familjen kaveldunsväxter. Släktet har 8–15 arter som förekommer i nästan hela världen. Släktet beskrevs först av Carl von Linné. I Sverige finns arterna bredkaveldun (T. latifolia) och smalkaveldun (T. angustifolia). Rötter kan användas året om och man tar då tillvara på märgen som kan ätas rå eller kokas. Vid kokning löser märgen upp sig i vattnet. Stjälkbasen kan ätas på icke blombärande stammar.</t>
+  </si>
+  <si>
+    <t>Scirpus lacustris</t>
+  </si>
+  <si>
+    <t>Kolsäv eller Kolvass är ett flerårigt halvgräs som är vanlig i hela sverige och särskilt vid näringsfattinga sjöar. Stråbasens märg samt roten kan ätas rå eller kokas.</t>
+  </si>
+  <si>
+    <t>Stor eller liten buske. Vanlig i hela lan¬ det, i skog och hagmarker. Förekommer också i fjälltrakterna som lågt krypande ris. Barr kan användas till te. Bären innehåller mycket kolhydrater och kan ätas råa men används mer som en smaksättare. Roten kan kokas och avkoket drickas.</t>
+  </si>
+  <si>
+    <t>Säv</t>
+  </si>
+  <si>
+    <t>Fjällglim</t>
+  </si>
+  <si>
+    <t>Silene acaulis</t>
+  </si>
+  <si>
+    <t>Liten fjällväxt med rödaktiga blommor. Flerårig. Växer som rosetter, ca 5 cm höga. Under varje rosett finns en huvudrot. Roten äts färsk eller kokt och innehåller mycket kolhydrat.</t>
+  </si>
+  <si>
+    <t>Maskros</t>
+  </si>
+  <si>
+    <t>Vass</t>
+  </si>
+  <si>
+    <t>Tall</t>
+  </si>
+  <si>
+    <t>Islandslav</t>
+  </si>
+  <si>
+    <t>Cetmria islandica</t>
+  </si>
+  <si>
+    <t>Allmän i hela landet. Växer bland mossa och andra lavar i glesa skogar och hällmarker. Buskformig, löst tuvad. 1 torrt tillstånd grågrön till brungrön, i fuktigt tillstånd grön¬ aktig. Måste urlakas. Hela växten används.</t>
+  </si>
+  <si>
+    <t>Skägglavar</t>
+  </si>
+  <si>
+    <t>Usnea</t>
+  </si>
+  <si>
+    <t>Vanliga i Norrland. Växer på träd framför allt i gamla skogar. Gråvita eller bruna. Vissa gråvita arter innehåller mycket lavsyra och bör inte användas. Endast de mörka bruna till brunsvarta skägglavarna bör användas. Hela växten används. Skägglavar är känsliga för luftföroreningar och fungerar därför som indikatorarter.</t>
+  </si>
+  <si>
+    <t>Tuschlavar</t>
+  </si>
+  <si>
+    <t>Tuschlavar, navellavar släktena Lcisallia och Umbillicaria Förekommer i hela landet. Vanligast i kust-och fjällområden på stenar, klippor och bergväggar, som är utsatta för väder och vind. De har tunna, gråa till svarta, läderartade "blad", i mitten fastade vid underlaget. I fuktigt tillstånd skiftar de i grönt. Hela växten används. Vintertid kan du finna dem på snöfria klippbranter.</t>
+  </si>
+  <si>
+    <t>Lasallia</t>
+  </si>
+  <si>
+    <t>Vanlig i hela landet, även i fjällen. Växer på de flesta typer av mark, dock ej inne i skogen. Är flerårig. Maskrosen har en vitaktig och besk mjölksaft. Det yttre bruka skalet skalas bort och roten bör urlakas. Bladen kan ätas som sallad och ger främst C-vitamin.</t>
+  </si>
+  <si>
+    <t>Taraxacum</t>
+  </si>
+  <si>
+    <t>Kvickrot</t>
+  </si>
+  <si>
+    <t>Mycket vanligt ogräs i hela Sverige på odlad mark. Ca 0,5 meter hög. Flerårig. Den växer med långa krypande rotstockar. Småaxen i stråtoppen har den platta sidan vänd mot huvudstrået. Rot: Är högst 1/2 cm tjock och gulaktig. Den är mycket kolhydratrik och välsmakande. Roten kan ätas färsk men kokar du den får du en sockerrik, sirapsliknande lag som kan drickas. Rostad rot är ett bra kaffesurrogat. Kan användas hela året.</t>
+  </si>
+  <si>
+    <t>Elytrigia repens</t>
+  </si>
+  <si>
+    <t>Stensöta</t>
+  </si>
+  <si>
+    <t>Vanlig i hela landet. Den är grön hela året och växer bland mossa i tall-och granskog.  Smakar sött och lakrits. Kan ätas färsk eller blandas i anrättningar med växter som smakar beskt, t ex lavar, för att få en godare smak. Har måttlig kolhydrathalt. Stensötan är en ormbunke. Ormbunkar förökar sig genom sporer, som sitter på undersidan av bladen i små bruna samlingar. Stensötan är den enda ätliga svenska ormbunken. I en del skrifter anges en annan ormbunke, örnbräken, vara ätlig men den är troligen cancerframkallande och orsakar dessutom illamående.</t>
+  </si>
+  <si>
+    <t>Polypodium vulgäre</t>
+  </si>
+  <si>
+    <t>Pinus sylvestris</t>
+  </si>
+  <si>
+    <t>Phragmites australis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ett vanligt gräs över hela landet, utom mot fjällkedjan. Växer i stora bestånd på fuktiga ställen och i vatten. Förekommer även längs kusterna i salthaltigt vatten. Det¬ ta påverkar dock inte växtens användbarhet. Har en kry¬ pande rotstock som skickar ut skott hela säsongen. Rotstocken är vitgul och ihålig och kan bli flera meter lång. De unga mjuka delarna används. Kan ätas färsk eller kokt. Går ofta även att plockas vintertid. Även stråbasen kan ätas. </t>
+  </si>
+  <si>
+    <t>Lingon</t>
+  </si>
+  <si>
+    <t>Odon</t>
+  </si>
+  <si>
+    <t>Tranbär</t>
+  </si>
+  <si>
+    <t>Ripbär</t>
+  </si>
+  <si>
+    <t>Vaccinium vitis-idaea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingon (Vaccinium vitis-idaea) är ett ris som är vintergrönt. Lingonets bär, som också heter lingon, är ätliga, och mognar i augusti–september. Lingon växer vilt, men går även att odla. </t>
+  </si>
+  <si>
+    <t>Vaccinium uliginosum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odon (Vaccinium uliginosum) är en växtart i släktet Vaccinium och familjen ljungväxter. Den beskrevs av Carl von Linné. Arten är ett tämligen högväxt, lövfällande ris med blå, ätliga bär. Den förekommer på fuktig mark över stora delar av norra halvklotet. Eftersom arten ofta växer i samma marker som blåbär förväxlas de ibland. </t>
+  </si>
+  <si>
+    <t>Ripbär är en 5–20 centimeter hög buske som växer i risartade bestånd och breder ut sig tätt intill marken. Bladen får på hösten en stark purpurröd färg och är inte vintergröna</t>
+  </si>
+  <si>
+    <t>Arctostaphylos alpinus</t>
+  </si>
+  <si>
+    <t>Vaccinium oxycoccos</t>
+  </si>
+  <si>
+    <t>Tranbär (Vaccinium oxycoccos) är en art i blåbärssläktet i familjen ljungväxter. Växten får röda bär, som är ätliga. I Sverige finns det två arter av tranbär – vanligt tranbär (Vaccinium oxycoccos) och dvärgtranbär (Vaccinium microcarpum). Tranbär växer i stora delar av Sverige. Trots det är det historiskt sett ovanligt att plocka tranbär för att använda i kosten i Sverige, troligtvis för att tranbären är sura.</t>
+  </si>
+  <si>
+    <t>Vanlig i hela landet. Tallskogar är torra områden med lavar, lingon och ljung som markvegetation. Hos tallen är det främst barren som du använder. Av dessa kan du göra en god och vitaminrik dryck. Den äldre, hårda barken skrapas av intill det ljusgröna, tunna skiktet (innerbarken). Tidsödande. Bereds på samma sätt som ungbark. Förr i tiden när det var missväxt och svält var det vanligt att man blandade denna bark i brödet.</t>
   </si>
 </sst>
 </file>
@@ -2169,11 +2406,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:R127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P11" sqref="P11"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2184,10 +2421,10 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2198,7 +2435,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2219,329 +2456,323 @@
         <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>194</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>357</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>135</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>223</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>62</v>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>186</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="P11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>97</v>
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>311</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>94</v>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>202</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>314</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2561,1772 +2792,2394 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>236</v>
+      </c>
+      <c r="B18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>240</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" t="s">
+        <v>199</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>241</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>246</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>166</v>
+      </c>
+      <c r="B30" t="s">
+        <v>168</v>
+      </c>
+      <c r="C30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>203</v>
+      </c>
+      <c r="C32" t="s">
+        <v>204</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" t="s">
+        <v>315</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="H34">
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" t="s">
+        <v>171</v>
+      </c>
+      <c r="C36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C37" t="s">
         <v>55</v>
       </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="J17">
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="J37">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>339</v>
+      </c>
+      <c r="B38" t="s">
+        <v>340</v>
+      </c>
+      <c r="C38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B39" t="s">
+        <v>347</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" t="s">
+        <v>183</v>
+      </c>
+      <c r="C41" t="s">
+        <v>215</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B43" t="s">
+        <v>230</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" t="s">
+        <v>159</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>359</v>
+      </c>
+      <c r="C48" t="s">
+        <v>361</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>260</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50">
+        <v>2</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" t="s">
+        <v>331</v>
+      </c>
+      <c r="C52" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>4</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>264</v>
+      </c>
+      <c r="B56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="P56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" t="s">
+        <v>353</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>366</v>
+      </c>
+      <c r="B59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>367</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>120</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>338</v>
+      </c>
+      <c r="B61" t="s">
+        <v>335</v>
+      </c>
+      <c r="C61" t="s">
+        <v>337</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="H61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+      <c r="P62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>2</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>2</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="P68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" t="s">
+        <v>376</v>
+      </c>
+      <c r="C69" t="s">
+        <v>377</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" t="s">
+        <v>256</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>54</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>322</v>
+      </c>
+      <c r="B74" t="s">
+        <v>323</v>
+      </c>
+      <c r="C74" t="s">
+        <v>324</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>284</v>
+      </c>
+      <c r="B75" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>301</v>
+      </c>
+      <c r="B76" t="s">
+        <v>300</v>
+      </c>
+      <c r="C76" t="s">
+        <v>299</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>334</v>
+      </c>
+      <c r="B77" t="s">
+        <v>333</v>
+      </c>
+      <c r="C77" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>375</v>
+      </c>
+      <c r="B78" t="s">
+        <v>362</v>
+      </c>
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="P78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>22</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>151</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>2</v>
+      </c>
+      <c r="P79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>268</v>
+      </c>
+      <c r="B80" t="s">
+        <v>267</v>
+      </c>
+      <c r="C80" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80">
+        <v>2</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="O80" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" t="s">
+        <v>92</v>
+      </c>
+      <c r="C81" t="s">
+        <v>94</v>
+      </c>
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>295</v>
+      </c>
+      <c r="B82" t="s">
+        <v>294</v>
+      </c>
+      <c r="C82" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>318</v>
+      </c>
+      <c r="B83" t="s">
+        <v>317</v>
+      </c>
+      <c r="C83" t="s">
+        <v>319</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>292</v>
+      </c>
+      <c r="B85" t="s">
+        <v>291</v>
+      </c>
+      <c r="C85" t="s">
+        <v>293</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>344</v>
+      </c>
+      <c r="B87" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>3</v>
+      </c>
+      <c r="H87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" t="s">
+        <v>265</v>
+      </c>
+      <c r="C88" t="s">
+        <v>277</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>259</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+      <c r="C89" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89">
+        <v>2</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" t="s">
+        <v>123</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>19</v>
+      </c>
+      <c r="B92" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" t="s">
+        <v>21</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>70</v>
+      </c>
+      <c r="B93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C93" t="s">
+        <v>84</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" t="s">
+        <v>117</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B95" t="s">
+        <v>368</v>
+      </c>
+      <c r="C95" t="s">
+        <v>370</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97" t="s">
+        <v>302</v>
+      </c>
+      <c r="C97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>75</v>
+      </c>
+      <c r="B98" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" t="s">
+        <v>73</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" t="s">
+        <v>95</v>
+      </c>
+      <c r="C99" t="s">
+        <v>153</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>381</v>
+      </c>
+      <c r="B100" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" t="s">
+        <v>380</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="P100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>326</v>
+      </c>
+      <c r="B101" t="s">
+        <v>325</v>
+      </c>
+      <c r="C101" t="s">
+        <v>327</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>46</v>
+      </c>
+      <c r="B102" t="s">
+        <v>45</v>
+      </c>
+      <c r="C102" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="H103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="s">
+        <v>87</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" t="s">
+        <v>358</v>
+      </c>
+      <c r="C105" t="s">
+        <v>356</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="P105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" t="s">
+        <v>252</v>
+      </c>
+      <c r="C106" t="s">
+        <v>251</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>382</v>
+      </c>
+      <c r="B107" t="s">
+        <v>364</v>
+      </c>
+      <c r="C107" t="s">
+        <v>397</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+      <c r="P107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B108" t="s">
+        <v>371</v>
+      </c>
+      <c r="C108" t="s">
+        <v>372</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="P108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>329</v>
+      </c>
+      <c r="B109" t="s">
+        <v>329</v>
+      </c>
+      <c r="C109" t="s">
+        <v>330</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>321</v>
+      </c>
+      <c r="B110" t="s">
+        <v>320</v>
+      </c>
+      <c r="C110" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="P110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>383</v>
+      </c>
+      <c r="B111" t="s">
+        <v>363</v>
+      </c>
+      <c r="C111" t="s">
+        <v>384</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="P111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>155</v>
+      </c>
+      <c r="B112" t="s">
+        <v>154</v>
+      </c>
+      <c r="C112" t="s">
+        <v>156</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>40</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B113" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C113" t="s">
         <v>82</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="K20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="C114" t="s">
+        <v>89</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" t="s">
+        <v>271</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115">
+        <v>2</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>113</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B117" t="s">
         <v>14</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C117" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21">
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117">
         <v>0</v>
       </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="K27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" t="s">
+        <v>296</v>
+      </c>
+      <c r="C119" t="s">
+        <v>298</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>32</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B120" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C120" t="s">
         <v>31</v>
       </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B32" t="s">
-        <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>2</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>2</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="M37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>118</v>
-      </c>
-      <c r="B41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>120</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>119</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>1</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="K43">
-        <v>4</v>
-      </c>
-      <c r="N43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B44" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C46" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="J47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>143</v>
-      </c>
-      <c r="B49" t="s">
-        <v>144</v>
-      </c>
-      <c r="C49" t="s">
-        <v>142</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50" t="s">
-        <v>145</v>
-      </c>
-      <c r="C50" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50">
-        <v>2</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>149</v>
-      </c>
-      <c r="B51" t="s">
-        <v>148</v>
-      </c>
-      <c r="C51" t="s">
-        <v>316</v>
-      </c>
-      <c r="D51">
-        <v>2</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" t="s">
-        <v>150</v>
-      </c>
-      <c r="C52" t="s">
-        <v>152</v>
-      </c>
-      <c r="D52">
-        <v>2</v>
-      </c>
-      <c r="J52">
-        <v>2</v>
-      </c>
-      <c r="N52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53">
-        <v>2</v>
-      </c>
-      <c r="K53">
-        <v>1</v>
-      </c>
-      <c r="N53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>167</v>
-      </c>
-      <c r="B54" t="s">
-        <v>165</v>
-      </c>
-      <c r="C54" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="J54">
-        <v>1</v>
-      </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>168</v>
-      </c>
-      <c r="B55" t="s">
-        <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>169</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" t="s">
-        <v>171</v>
-      </c>
-      <c r="C56" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="J56">
-        <v>2</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" t="s">
-        <v>173</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="J57">
-        <v>2</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-      <c r="C58" t="s">
-        <v>317</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="C59" t="s">
-        <v>180</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>183</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D60">
-        <v>2</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>186</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="C61" t="s">
-        <v>217</v>
-      </c>
-      <c r="D61">
-        <v>2</v>
-      </c>
-      <c r="E61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>189</v>
-      </c>
-      <c r="B62" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62">
-        <v>2</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>191</v>
-      </c>
-      <c r="B63" t="s">
-        <v>190</v>
-      </c>
-      <c r="C63" t="s">
-        <v>192</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="J63">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" t="s">
-        <v>193</v>
-      </c>
-      <c r="C64" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="J64">
-        <v>1</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B65" t="s">
-        <v>196</v>
-      </c>
-      <c r="C65" t="s">
-        <v>197</v>
-      </c>
-      <c r="D65">
-        <v>2</v>
-      </c>
-      <c r="J65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>204</v>
-      </c>
-      <c r="B67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C67" t="s">
-        <v>202</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="J67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B68" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" t="s">
-        <v>206</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="J68">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>210</v>
-      </c>
-      <c r="B69" t="s">
-        <v>208</v>
-      </c>
-      <c r="C69" t="s">
-        <v>209</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="J69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" t="s">
-        <v>213</v>
-      </c>
-      <c r="C70" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="J70">
-        <v>1</v>
-      </c>
-      <c r="N70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" t="s">
-        <v>214</v>
-      </c>
-      <c r="C71" t="s">
-        <v>215</v>
-      </c>
-      <c r="D71">
-        <v>2</v>
-      </c>
-      <c r="J71">
-        <v>1</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>220</v>
-      </c>
-      <c r="B72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="J72">
-        <v>1</v>
-      </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>222</v>
-      </c>
-      <c r="B73" t="s">
-        <v>223</v>
-      </c>
-      <c r="C73" t="s">
-        <v>221</v>
-      </c>
-      <c r="D73">
-        <v>2</v>
-      </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>224</v>
-      </c>
-      <c r="B74" t="s">
-        <v>225</v>
-      </c>
-      <c r="C74" t="s">
-        <v>226</v>
-      </c>
-      <c r="D74">
-        <v>2</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>229</v>
-      </c>
-      <c r="B75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C75" t="s">
-        <v>228</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="D120">
+        <v>2</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>282</v>
+      </c>
+      <c r="B121" t="s">
+        <v>283</v>
+      </c>
+      <c r="C121" t="s">
+        <v>312</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
         <v>231</v>
       </c>
-      <c r="B76" t="s">
-        <v>232</v>
-      </c>
-      <c r="C76" t="s">
-        <v>230</v>
-      </c>
-      <c r="D76">
-        <v>2</v>
-      </c>
-      <c r="E76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>234</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C122" t="s">
         <v>233</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="O122" t="s">
         <v>235</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
-      </c>
-      <c r="O77" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" t="s">
-        <v>239</v>
-      </c>
-      <c r="C78" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="N78">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>242</v>
-      </c>
-      <c r="B79" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" t="s">
-        <v>245</v>
-      </c>
-      <c r="D79">
-        <v>2</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="N79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>243</v>
-      </c>
-      <c r="B80" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80">
-        <v>2</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="N80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" t="s">
-        <v>313</v>
-      </c>
-      <c r="D81">
-        <v>2</v>
-      </c>
-      <c r="J81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="N81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>255</v>
-      </c>
-      <c r="B82" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82">
-        <v>2</v>
-      </c>
-      <c r="G82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" t="s">
-        <v>258</v>
-      </c>
-      <c r="D83">
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <v>2</v>
-      </c>
-      <c r="G83">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>261</v>
-      </c>
-      <c r="B84" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84">
-        <v>2</v>
-      </c>
-      <c r="E84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>263</v>
-      </c>
-      <c r="B85" t="s">
-        <v>260</v>
-      </c>
-      <c r="C85" t="s">
-        <v>262</v>
-      </c>
-      <c r="D85">
-        <v>2</v>
-      </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>266</v>
-      </c>
-      <c r="B86" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>268</v>
-      </c>
-      <c r="B87" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" t="s">
-        <v>279</v>
-      </c>
-      <c r="D87">
-        <v>2</v>
-      </c>
-      <c r="E87">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>270</v>
-      </c>
-      <c r="B88" t="s">
-        <v>269</v>
-      </c>
-      <c r="C88" t="s">
-        <v>272</v>
-      </c>
-      <c r="D88">
-        <v>2</v>
-      </c>
-      <c r="E88">
-        <v>2</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>1</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>1</v>
-      </c>
-      <c r="O88" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>275</v>
-      </c>
-      <c r="B89" t="s">
-        <v>274</v>
-      </c>
-      <c r="C89" t="s">
-        <v>273</v>
-      </c>
-      <c r="D89">
-        <v>2</v>
-      </c>
-      <c r="E89">
-        <v>2</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-      <c r="G89">
-        <v>1</v>
-      </c>
-      <c r="H89">
-        <v>1</v>
-      </c>
-      <c r="I89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>277</v>
-      </c>
-      <c r="B90" t="s">
-        <v>276</v>
-      </c>
-      <c r="C90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90">
-        <v>2</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>2</v>
-      </c>
-      <c r="N90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>282</v>
-      </c>
-      <c r="B91" t="s">
-        <v>283</v>
-      </c>
-      <c r="C91" t="s">
-        <v>281</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="G91">
-        <v>1</v>
-      </c>
-      <c r="H91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>284</v>
-      </c>
-      <c r="B92" t="s">
-        <v>285</v>
-      </c>
-      <c r="C92" t="s">
-        <v>314</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>286</v>
-      </c>
-      <c r="B93" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" t="s">
-        <v>288</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="G93">
-        <v>1</v>
-      </c>
-      <c r="H93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>291</v>
-      </c>
-      <c r="B94" t="s">
-        <v>290</v>
-      </c>
-      <c r="C94" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="O94" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>294</v>
-      </c>
-      <c r="B95" t="s">
-        <v>293</v>
-      </c>
-      <c r="C95" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95">
-        <v>2</v>
-      </c>
-      <c r="E95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" t="s">
-        <v>312</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" t="s">
-        <v>298</v>
-      </c>
-      <c r="C97" t="s">
-        <v>300</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>303</v>
-      </c>
-      <c r="B98" t="s">
-        <v>302</v>
-      </c>
-      <c r="C98" t="s">
-        <v>301</v>
-      </c>
-      <c r="D98">
-        <v>2</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>306</v>
       </c>
-      <c r="B99" t="s">
-        <v>304</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B123" t="s">
         <v>305</v>
       </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="G99">
-        <v>1</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>308</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C123" t="s">
         <v>307</v>
       </c>
-      <c r="C100" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100">
-        <v>2</v>
-      </c>
-      <c r="G100">
-        <v>1</v>
-      </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" t="s">
-        <v>315</v>
-      </c>
-      <c r="D101">
-        <v>2</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
-      <c r="H101">
-        <v>1</v>
-      </c>
-      <c r="I101">
-        <v>1</v>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B124" t="s">
+        <v>385</v>
+      </c>
+      <c r="C124" t="s">
+        <v>390</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>391</v>
+      </c>
+      <c r="B125" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" t="s">
+        <v>392</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="P125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>395</v>
+      </c>
+      <c r="B126" t="s">
+        <v>387</v>
+      </c>
+      <c r="C126" t="s">
+        <v>396</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="P126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" t="s">
+        <v>388</v>
+      </c>
+      <c r="C127" t="s">
+        <v>393</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="P127">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L33">
-    <sortCondition ref="A2:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R126">
+    <sortCondition ref="J2:J126"/>
+    <sortCondition ref="B2:B126"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C30" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
-    <hyperlink ref="C42" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
+    <hyperlink ref="C118" r:id="rId1" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{20AF4F85-92C6-47E9-B9BE-D7E0DA55EC47}"/>
+    <hyperlink ref="C94" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
+    <hyperlink ref="C95" r:id="rId3" tooltip="Luftförorening" display="https://sv.wikipedia.org/wiki/Luftf%C3%B6rorening" xr:uid="{A972A4F6-1CD6-4FB0-814B-16AE61A337C7}"/>
+    <hyperlink ref="C127" r:id="rId4" tooltip="Buske" display="https://sv.wikipedia.org/wiki/Buske" xr:uid="{D2FA3C8A-A4DD-47BF-A488-3E13AA0B3D01}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F835DB4A-E982-4B9E-8AA1-4AFDC15FE64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0AFB8-C9E4-4812-A50D-EA23B08E3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
   <si>
     <t>Latin Name</t>
   </si>
@@ -266,9 +266,6 @@
   </si>
   <si>
     <t>Körsbärskornell (Cornus mas) är en växtart i familjen kornellväxter och förekommer naturligt från centrala och sydöstra Europa till Kaukasus. Körsbärskornell är en lövfällande buske (4 meter hög) eller ett litet träd (8 meter), med bred och ganska låg krona. Bladen är äggrunda, med lång spets.</t>
-  </si>
-  <si>
-    <t>Vildmorot (Daucus carota) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (D. carota sativa) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot - som dock ändå är ätlig.</t>
   </si>
   <si>
     <r>
@@ -634,9 +631,6 @@
     <t>Tree</t>
   </si>
   <si>
-    <t xml:space="preserve">1=Toxic,       2=Förväxl,   4=PartToxic   Avoid             </t>
-  </si>
-  <si>
     <t>Brännässla (Urtica dioica) är en art i familjen nässelväxter. Arten är allmän över hela Nordeuropa, men förekommer även i övriga Europa, Asien, Nordafrika och Nordamerika. Nässlorna växer i näringsrik jord och lagrar in nitrater vilket gör att vissa anser att man ej bör äta för mycket utav dem. Blad och skott hos unga plantor gör sig bäst efter kokning eller förvällning. Små plantor ska även gå att ätas råa. De kan även blandas i när man gör bröd. Stammen kan användas till att göra rep. Etternässlan kan användas på samma sätt.</t>
   </si>
   <si>
@@ -686,9 +680,6 @@
   </si>
   <si>
     <t>Rosa dumalis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nypon växer på nyponbuskar som är olika varianter av rosor. Nypon är mycket nyttiga då de innehåller stora mängder C-vitamin. Det finns många olike varianter av nypon men alla kan användas likvärdigt. Nyponte görs genom att koka frukterna i vatten och silar av. Det går även bra att koka marmelad, göra sylt eller soppa på dem men kärna då ur dem ordentligt. </t>
   </si>
   <si>
     <t>Daggkåpa</t>
@@ -869,9 +860,6 @@
   </si>
   <si>
     <t>Prunus cerasus</t>
-  </si>
-  <si>
-    <t>Sötkörsbär eller fågelbär, Prunus avium, är en art i plommonsläktet inom familjen rosväxter. Arten förekommer naturligt i Europa. Det är träd som blir cirka 15–30 meter högt, och den art från vilken de flesta odlade kultivarer av körsbär tagits fram. Det finns i three main variteter såsom Bigarråer, vanlig sötkörsbär</t>
   </si>
   <si>
     <t>Prunus avium</t>
@@ -1439,9 +1427,6 @@
     <t>Islandslav</t>
   </si>
   <si>
-    <t>Cetmria islandica</t>
-  </si>
-  <si>
     <t>Allmän i hela landet. Växer bland mossa och andra lavar i glesa skogar och hällmarker. Buskformig, löst tuvad. 1 torrt tillstånd grågrön till brungrön, i fuktigt tillstånd grön¬ aktig. Måste urlakas. Hela växten används.</t>
   </si>
   <si>
@@ -1533,6 +1518,24 @@
   </si>
   <si>
     <t>Vanlig i hela landet. Tallskogar är torra områden med lavar, lingon och ljung som markvegetation. Hos tallen är det främst barren som du använder. Av dessa kan du göra en god och vitaminrik dryck. Den äldre, hårda barken skrapas av intill det ljusgröna, tunna skiktet (innerbarken). Tidsödande. Bereds på samma sätt som ungbark. Förr i tiden när det var missväxt och svält var det vanligt att man blandade denna bark i brödet.</t>
+  </si>
+  <si>
+    <t>Sötkörsbär eller fågelbär, Prunus avium, är en art i plommonsläktet inom familjen rosväxter. Arten förekommer naturligt i Europa. Det är träd som blir cirka 15–30 meter högt, och den art från vilken de flesta odlade kultivarer av körsbär tagits fram. Det finns i tre variteter såsom Bigarråer, vanlig sötkörsbär och hjärtkörsbär.</t>
+  </si>
+  <si>
+    <t>Cetraria islandica</t>
+  </si>
+  <si>
+    <t>Lav Fungi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1=Toxic,       2=Förväxl,   4=PartToxic   Avoid             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nypon växer på nyponbuskar som är olika varianter av rosor. Nypon är mycket nyttiga då de innehåller stora mängder C-vitamin. Det finns många olika varianter av nypon men de kan användas likvärdigt. Nyponte görs genom att koka frukterna i vatten som man sedan silar av. Det går även bra att koka soppa och marmelad eller att göra sylt på dem, men kärna då ur dem ordentligt. </t>
+  </si>
+  <si>
+    <t>Vildmorot (Daucus carota) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (D. carota sativa) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot som är ätlig.</t>
   </si>
 </sst>
 </file>
@@ -2406,11 +2409,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R127"/>
+  <dimension ref="A1:S127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2419,12 +2422,12 @@
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="15" max="15" width="26.85546875" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2435,7 +2438,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2455,40 +2458,43 @@
       <c r="J1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>158</v>
+      <c r="K1" s="2" t="s">
+        <v>346</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>157</v>
+        <v>395</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>246</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>316</v>
+        <v>156</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>336</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -2496,19 +2502,19 @@
       <c r="J2">
         <v>1</v>
       </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -2519,43 +2525,43 @@
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
       <c r="P3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" t="s">
         <v>134</v>
       </c>
-      <c r="C4" t="s">
-        <v>135</v>
-      </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
         <v>129</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>130</v>
       </c>
-      <c r="C5" t="s">
-        <v>131</v>
-      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -2565,19 +2571,19 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -2585,22 +2591,22 @@
       <c r="J6">
         <v>1</v>
       </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
       <c r="P6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -2608,116 +2614,116 @@
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" t="s">
         <v>208</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C12" t="s">
         <v>206</v>
       </c>
-      <c r="C8" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" t="s">
-        <v>209</v>
-      </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -2725,22 +2731,22 @@
       <c r="J13">
         <v>1</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="N13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2748,19 +2754,19 @@
       <c r="J14">
         <v>1</v>
       </c>
-      <c r="P14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -2768,11 +2774,11 @@
       <c r="J15">
         <v>1</v>
       </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -2788,337 +2794,337 @@
       <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
         <v>144</v>
       </c>
-      <c r="B17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C17" t="s">
-        <v>145</v>
-      </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C19" t="s">
+        <v>162</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>236</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" t="s">
+        <v>151</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>221</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C24" t="s">
+        <v>187</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>237</v>
       </c>
-      <c r="C18" t="s">
+      <c r="B27" t="s">
         <v>238</v>
       </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>393</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" t="s">
         <v>165</v>
       </c>
-      <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B21" t="s">
-        <v>239</v>
-      </c>
-      <c r="C21" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>227</v>
-      </c>
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>226</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>189</v>
-      </c>
-      <c r="B24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B25" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="P25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>218</v>
-      </c>
-      <c r="B26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>241</v>
-      </c>
-      <c r="B27" t="s">
-        <v>242</v>
-      </c>
-      <c r="C27" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" t="s">
         <v>139</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>220</v>
-      </c>
-      <c r="B29" t="s">
-        <v>221</v>
-      </c>
-      <c r="C29" t="s">
-        <v>219</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>166</v>
-      </c>
-      <c r="B30" t="s">
-        <v>168</v>
-      </c>
-      <c r="C30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B31" t="s">
-        <v>142</v>
-      </c>
-      <c r="C31" t="s">
-        <v>140</v>
-      </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3129,13 +3135,13 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>176</v>
+        <v>397</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3143,22 +3149,22 @@
       <c r="J33">
         <v>2</v>
       </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
       <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="R33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -3169,40 +3175,40 @@
       <c r="J34">
         <v>2</v>
       </c>
-      <c r="N34">
+      <c r="P34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" t="s">
-        <v>148</v>
-      </c>
-      <c r="C35" t="s">
-        <v>150</v>
-      </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
-      <c r="N35">
+      <c r="P35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+      <c r="C36" t="s">
         <v>172</v>
       </c>
-      <c r="B36" t="s">
-        <v>171</v>
-      </c>
-      <c r="C36" t="s">
-        <v>174</v>
-      </c>
       <c r="D36">
         <v>2</v>
       </c>
@@ -3212,10 +3218,10 @@
       <c r="J36">
         <v>2</v>
       </c>
-      <c r="L36">
+      <c r="N36">
         <v>3</v>
       </c>
-      <c r="N36">
+      <c r="P36">
         <v>2</v>
       </c>
     </row>
@@ -3238,35 +3244,35 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C39" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="N39">
+      <c r="K39">
         <v>1</v>
       </c>
       <c r="P39">
@@ -3281,7 +3287,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -3289,19 +3295,19 @@
       <c r="D40">
         <v>2</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -3318,7 +3324,7 @@
         <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -3335,13 +3341,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -3358,7 +3364,7 @@
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3375,13 +3381,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3415,19 +3421,19 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="L46">
+      <c r="N46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" t="s">
         <v>160</v>
-      </c>
-      <c r="C47" t="s">
-        <v>162</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3441,13 +3447,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B48" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="C48" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -3455,19 +3461,19 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -3481,19 +3487,19 @@
       <c r="H49">
         <v>2</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -3505,7 +3511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3530,19 +3536,19 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B52" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C52" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3551,15 +3557,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D53">
         <v>2</v>
@@ -3570,19 +3576,19 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="P53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D54">
         <v>2</v>
@@ -3597,15 +3603,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
         <v>124</v>
       </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D55">
         <v>2</v>
@@ -3613,22 +3619,22 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>4</v>
       </c>
-      <c r="N55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C56" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3639,11 +3645,11 @@
       <c r="H56">
         <v>1</v>
       </c>
-      <c r="P56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>80</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3662,22 +3668,22 @@
       <c r="G57">
         <v>2</v>
       </c>
-      <c r="K57">
-        <v>2</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -3686,15 +3692,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="B59" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C59" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -3702,19 +3708,22 @@
       <c r="G59">
         <v>2</v>
       </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
         <v>99</v>
       </c>
-      <c r="B60" t="s">
-        <v>100</v>
-      </c>
       <c r="C60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -3729,15 +3738,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B61" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C61" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -3745,14 +3754,14 @@
       <c r="H61">
         <v>3</v>
       </c>
-      <c r="O61" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="Q61" t="s">
+        <v>231</v>
+      </c>
+      <c r="S61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3769,7 @@
         <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -3768,11 +3777,11 @@
       <c r="E62">
         <v>2</v>
       </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3792,15 +3801,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -3808,11 +3817,11 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="M64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -3820,7 +3829,7 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D65">
         <v>2</v>
@@ -3832,15 +3841,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -3849,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>62</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -3900,22 +3909,22 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="K68">
-        <v>2</v>
-      </c>
-      <c r="P68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B69" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C69" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -3923,19 +3932,19 @@
       <c r="E69">
         <v>1</v>
       </c>
-      <c r="P69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D70">
         <v>2</v>
@@ -3946,11 +3955,11 @@
       <c r="G70">
         <v>2</v>
       </c>
-      <c r="P70">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>44</v>
       </c>
@@ -3963,11 +3972,11 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="K71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -3975,7 +3984,7 @@
         <v>50</v>
       </c>
       <c r="C72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -3986,20 +3995,20 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s">
+        <v>270</v>
+      </c>
+      <c r="C73" t="s">
         <v>274</v>
       </c>
-      <c r="C73" t="s">
-        <v>278</v>
-      </c>
       <c r="D73">
         <v>2</v>
       </c>
@@ -4009,19 +4018,19 @@
       <c r="H73">
         <v>2</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B74" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C74" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4032,19 +4041,19 @@
       <c r="F74">
         <v>2</v>
       </c>
-      <c r="P74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B75" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -4056,15 +4065,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C76" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -4073,15 +4082,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C77" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4089,19 +4098,19 @@
       <c r="H77">
         <v>3</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C78" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4112,11 +4121,11 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="P78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>22</v>
       </c>
@@ -4124,7 +4133,7 @@
         <v>23</v>
       </c>
       <c r="C79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4132,19 +4141,19 @@
       <c r="E79">
         <v>2</v>
       </c>
-      <c r="P79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C80" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D80">
         <v>2</v>
@@ -4164,36 +4173,36 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="O80" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q80" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81" t="s">
         <v>93</v>
       </c>
-      <c r="B81" t="s">
-        <v>92</v>
-      </c>
-      <c r="C81" t="s">
-        <v>94</v>
-      </c>
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B82" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C82" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4202,15 +4211,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C83" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -4224,11 +4233,11 @@
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="P83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>42</v>
       </c>
@@ -4241,19 +4250,19 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="K84">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B85" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -4262,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>66</v>
       </c>
@@ -4270,27 +4279,27 @@
         <v>65</v>
       </c>
       <c r="C86" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>2</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C87" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4301,19 +4310,19 @@
       <c r="H87">
         <v>3</v>
       </c>
-      <c r="K87">
+      <c r="M87">
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4322,15 +4331,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C89" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D89">
         <v>2</v>
@@ -4339,15 +4348,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -4362,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -4385,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -4402,7 +4411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>70</v>
       </c>
@@ -4410,7 +4419,7 @@
         <v>69</v>
       </c>
       <c r="C93" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D93">
         <v>2</v>
@@ -4428,15 +4437,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94" t="s">
         <v>118</v>
       </c>
-      <c r="B94" t="s">
-        <v>119</v>
-      </c>
       <c r="C94" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4451,15 +4460,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B95" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C95" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4467,20 +4476,23 @@
       <c r="G95">
         <v>2</v>
       </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="R95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B96" t="s">
+        <v>305</v>
+      </c>
+      <c r="C96" t="s">
         <v>309</v>
       </c>
-      <c r="C96" t="s">
-        <v>313</v>
-      </c>
       <c r="D96">
         <v>2</v>
       </c>
@@ -4497,15 +4509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B97" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4517,7 +4529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>75</v>
       </c>
@@ -4542,36 +4554,36 @@
       <c r="H98">
         <v>1</v>
       </c>
-      <c r="L98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="K99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B100" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C100" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4579,19 +4591,19 @@
       <c r="E100">
         <v>1</v>
       </c>
-      <c r="P100">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -4603,7 +4615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>46</v>
       </c>
@@ -4611,7 +4623,7 @@
         <v>45</v>
       </c>
       <c r="C102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -4622,19 +4634,19 @@
       <c r="G102">
         <v>1</v>
       </c>
-      <c r="K102">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B103" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -4645,11 +4657,11 @@
       <c r="H103">
         <v>3</v>
       </c>
-      <c r="O103" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q103" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>27</v>
       </c>
@@ -4657,7 +4669,7 @@
         <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -4672,15 +4684,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B105" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="C105" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -4691,19 +4703,19 @@
       <c r="F105">
         <v>1</v>
       </c>
-      <c r="P105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B106" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C106" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -4711,19 +4723,19 @@
       <c r="G106">
         <v>2</v>
       </c>
-      <c r="L106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B107" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C107" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -4737,19 +4749,19 @@
       <c r="G107">
         <v>2</v>
       </c>
-      <c r="P107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B108" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C108" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -4757,19 +4769,22 @@
       <c r="G108">
         <v>1</v>
       </c>
-      <c r="P108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>1</v>
+      </c>
+      <c r="R108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -4777,19 +4792,19 @@
       <c r="G109">
         <v>2</v>
       </c>
-      <c r="K109">
+      <c r="M109">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B110" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -4800,19 +4815,19 @@
       <c r="F110">
         <v>2</v>
       </c>
-      <c r="P110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B111" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C111" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4823,31 +4838,31 @@
       <c r="F111">
         <v>1</v>
       </c>
-      <c r="P111">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>154</v>
+      </c>
+      <c r="B112" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" t="s">
         <v>155</v>
       </c>
-      <c r="B112" t="s">
-        <v>154</v>
-      </c>
-      <c r="C112" t="s">
-        <v>156</v>
-      </c>
       <c r="D112">
         <v>2</v>
       </c>
-      <c r="K112">
-        <v>1</v>
-      </c>
-      <c r="N112">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>1</v>
+      </c>
+      <c r="P112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>40</v>
       </c>
@@ -4855,7 +4870,7 @@
         <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -4864,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>67</v>
       </c>
@@ -4872,24 +4887,24 @@
         <v>68</v>
       </c>
       <c r="C114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="K114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C115" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -4910,15 +4925,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -4933,7 +4948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>29</v>
       </c>
@@ -4979,15 +4994,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B119" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C119" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5002,7 +5017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>32</v>
       </c>
@@ -5025,15 +5040,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C121" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -5045,35 +5060,35 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B122" t="s">
+        <v>227</v>
+      </c>
+      <c r="C122" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="Q122" t="s">
         <v>231</v>
       </c>
-      <c r="C122" t="s">
-        <v>233</v>
-      </c>
-      <c r="D122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>2</v>
-      </c>
-      <c r="O122" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C123" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -5088,88 +5103,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B124" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>386</v>
+      </c>
+      <c r="B125" t="s">
+        <v>381</v>
+      </c>
+      <c r="C125" t="s">
+        <v>387</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>390</v>
+      </c>
+      <c r="B126" t="s">
+        <v>382</v>
+      </c>
+      <c r="C126" t="s">
+        <v>391</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>389</v>
       </c>
-      <c r="B124" t="s">
-        <v>385</v>
-      </c>
-      <c r="C124" t="s">
-        <v>390</v>
-      </c>
-      <c r="D124">
-        <v>1</v>
-      </c>
-      <c r="J124">
-        <v>1</v>
-      </c>
-      <c r="P124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>391</v>
-      </c>
-      <c r="B125" t="s">
-        <v>386</v>
-      </c>
-      <c r="C125" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125">
-        <v>1</v>
-      </c>
-      <c r="J125">
-        <v>1</v>
-      </c>
-      <c r="P125">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>395</v>
-      </c>
-      <c r="B126" t="s">
-        <v>387</v>
-      </c>
-      <c r="C126" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126">
-        <v>2</v>
-      </c>
-      <c r="J126">
-        <v>1</v>
-      </c>
-      <c r="P126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>394</v>
-      </c>
       <c r="B127" t="s">
+        <v>383</v>
+      </c>
+      <c r="C127" t="s">
         <v>388</v>
       </c>
-      <c r="C127" t="s">
-        <v>393</v>
-      </c>
       <c r="D127">
         <v>1</v>
       </c>
       <c r="J127">
         <v>1</v>
       </c>
-      <c r="P127">
+      <c r="R127">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R126">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S126">
     <sortCondition ref="J2:J126"/>
     <sortCondition ref="B2:B126"/>
   </sortState>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE0AFB8-C9E4-4812-A50D-EA23B08E3AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169BDB7-45B8-4D2E-A7E1-233D0CB8C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="443">
   <si>
     <t>Latin Name</t>
   </si>
@@ -1536,6 +1536,138 @@
   </si>
   <si>
     <t>Vildmorot (Daucus carota) är en art i familjen flockblommiga växter. I likhet med alla övriga arter i morotssläktet är växten tvåårig. Den förädlade moroten (D. carota sativa) klassas som en underart. Den förekommer i Eurasien och Nordafrika. Människan har spridit den till Amerika, där den blivit ett svårt ogräs. Till skillnad från den förädlade moroten har vildmoroten en tunn, träig pålrot som är ätlig.</t>
+  </si>
+  <si>
+    <t>Lomme</t>
+  </si>
+  <si>
+    <t>Capsella bursa-pastoris</t>
+  </si>
+  <si>
+    <t>Penningört (Thlaspi arvense) är ett mycket vanligt åker- och trädgårdsogräs, lite mindre vanligt i Skandinaviens nordliga delar. Penningörten har fått sitt svenska namn efter sina stora, runda skidor, vilka liknats vid mynt. Dess vetenskapliga artepitet, arvense, har betydelsen "växande på åkrar". Bladen vissnar snabbt och kan göra plantan nästan bladlös. Bladen kan ätas som sallad men smakar ganska starkt. Växten producerar stora mängder frön och hela förskidorna kan användas på samma sätt som krasse.</t>
+  </si>
+  <si>
+    <t>Thlaspi arvense</t>
+  </si>
+  <si>
+    <t>Lomme (även kallat lommegräs, lommeört) (Capsella bursa-pastoris) är en växtart i familjen korsblommiga växter. Lomme är ett av de vanligaste ogräsen i hela Norden. På våren kan man skörda lommen innan blomstjälkarna kommer upp. Smaken påminner om krasse och kan användas på samma sätt. Smaken kan vara lite pikant så man äter helst inga stora mängder. Historiskt har man pressat olja ur fröna på samma sätt som andra korsblommiga växter såsom raps. Lommen kan ibland angripas av svamp och bör då undvikas.</t>
+  </si>
+  <si>
+    <t>Penningört</t>
+  </si>
+  <si>
+    <t>Bitterkrassing (Lepidium latifolium) är en växtart i familjen korsblommiga växter. Den växer vid havsstränder och ibland vid avfallsplatser. Bladen, skotten och frukterna är ätliga. De smakar skarpt och har historiskt använts som pepparrot. Bitterheten och pepparsmaken kan mildras genom kokning och sedan urlakning. Sedan kan växten användas som spenat.</t>
+  </si>
+  <si>
+    <t>Lepidium latifolium</t>
+  </si>
+  <si>
+    <t>Bitterkrassing</t>
+  </si>
+  <si>
+    <t>Gatkrassing</t>
+  </si>
+  <si>
+    <t>Lepidium ruderale</t>
+  </si>
+  <si>
+    <t>Gatkrassing (Lepidium ruderale.) ibland kallad gatkrasse, är en växt i familjen korsblommiga växter. Det är en vild släkting till smörgåskrassen och kan användas på samma sätt. Örten luktar likt senap och kan av vissaq upplevas som obehaglig.</t>
+  </si>
+  <si>
+    <t>Marviol (Cakile maritima) är en ört med blekt rödlila blommor. Marviol är en strandväxt som är vanlig längs havskusterna i södra Sverige, men som kan förekomma ända upp till Västerbotten. Den växer både på sandstränder och stenstränder. Stjälkarna är blågröna och köttiga. Skidorna har en smak av ättika. Små blad kan ätas som sallad och har en senapslikanande smak och innehåller en del C-vitamin. Blad och stjälkar kan kokas till soppa.</t>
+  </si>
+  <si>
+    <t>Marviol</t>
+  </si>
+  <si>
+    <t>Cakile maritima</t>
+  </si>
+  <si>
+    <t>Strandkål</t>
+  </si>
+  <si>
+    <t>Blekinge, Gotland</t>
+  </si>
+  <si>
+    <t>Sverige</t>
+  </si>
+  <si>
+    <t>Crambe maritima</t>
+  </si>
+  <si>
+    <t>Strandkålen är en flerårig, kal ört, upp till 80 cm hög med ett både djupgående och utbrett rotsystem. Bladen är stora, krusiga och blågröna, de nedre har långa skaft. Strandkålen äår vanligare på västkusten än på östkusten. Den odlas framför allt i England som en delikatess. Unga blad och skott kan användas som spenat medan äldre delar kan kokas och användas som kål. Smaken är nötliknande. Strandkålen är fridlyst i Blekinge och i Gotlands län.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Åkerrättika (Raphanus raphanistrum) hittas ofta namnet säger på åkrar. Den anträffas i nästan alla sädesodlande trakter av Finland, Sverige och Norge, utom i de mest nordligaste delarna. Unga skott hos örten kan ätas som sallad. Fröna kan ätas men smakar lite bittert. </t>
+  </si>
+  <si>
+    <t>Åkerrättika</t>
+  </si>
+  <si>
+    <t>Raphanus raphanistrum</t>
+  </si>
+  <si>
+    <t>Brassica rapa ssp. campestris</t>
+  </si>
+  <si>
+    <t>Åkerkål</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Åkerkål (Brassica rapa ssp. campestris) är en ettårig meterhög ört med gula blommor som blommar från juni till juli. Förekommer i hela Sverige och anses vara ett ogräs på många platser. Den hybridiserar ofta med rovor och rybs.  </t>
+  </si>
+  <si>
+    <t>Sumpfräne (Rorippa palustris) är en växtart i familjen korsblommiga växter. Det är ettårig eller tvåårig ört med ljusgula blommor och parflikiga blad som trivs på fuktig mark. Fröna kan användas som senap. Det sägs att växten används för att väcka liv i skendöda personer.</t>
+  </si>
+  <si>
+    <t>Rorippa palustris</t>
+  </si>
+  <si>
+    <t>Sumpfräne</t>
+  </si>
+  <si>
+    <t>Brassica nigra</t>
+  </si>
+  <si>
+    <t>Svartsenap</t>
+  </si>
+  <si>
+    <t>Vitsenap (Sinapis alba) är en art i familjen korsblommiga växter och förekommer naturligt från östra Medelhavsområdet till sydvästra Asien och Indien. Arten odlas som krydd- och medicinalväxt, men kan också användas till att bekämpa nematoder i odlingar. Det är en ettårig ört och har trots sitt namn gula blommor. Ur vitsenapens frö utvinns olja som används för att göra senap, men på senare tid har vitsenapen också fått konkurrens från sareptasenapen (Brassica juncea), även kallad brun senap, eftersom denna är enklare att skörda med maskin. Starkare varianter av senap, till exempel skånsk senap, använder istället en viss mängd frö från svartsenap (S. nigra) för att få en starkare smak.</t>
+  </si>
+  <si>
+    <t>Vitsenap</t>
+  </si>
+  <si>
+    <t>Sinapis alba</t>
+  </si>
+  <si>
+    <t>Sinapis arvensis</t>
+  </si>
+  <si>
+    <t>Åkersenap</t>
+  </si>
+  <si>
+    <t>Åkersenap (Sinapis arvensis) art i familjen korsblommiga växter och hör till de vanligast och rikast förekommande ettåriga ogräsen i åkrar och andra odlingar i Sverige. Den förekommer naturligt i Europa och Nordafrika. Fröna kan användas som senap men har en svag senapssmak.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Svartsenap (Brassica nigra) är en ettårig växt som tillhör kålsläktet och familjen korsblommiga växter. Den tillhör alltså inte, som till exempel åkersenapen och vitsenapen, släktet senaper (Sinapis), utan bara samma familj. Svartsenap är sällsynt och sällan naturaliserad men odlades förr. Svartsenapens frö används framför allt till framställning av starkare senapssorter, exempelvis skånsk senap och fransk dijonsenap. De vanliga sorterna av senap görs istället med frö från vitsenapen, men båda dessa arter har på senare tid fått konkurrens ifrån den indiska brunsenapen (Brassica juncea) eftersom dess frö är enklare att skörda maskinellt. </t>
+  </si>
+  <si>
+    <t>Berberis</t>
+  </si>
+  <si>
+    <t>Berberis vulgaris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berberis (Berberis vulgaris), ibland kallad surtorn, är en växtart i familjen berberisväxter som förekommer naturligt i Iran, Turkiet och Kaukasus. Till Europa infördes växten som läkeväxt och finns numera naturaliserad. Berberis har förvildats i stora delar av Sverige. Busken blommar med gula blommor och bildar sedan klarröda klasar av avlånga bär. Bären har en frisk och syrlig smak och används till sylt, saft och gele. Bären har tidigare används istället för citron. Under en stor del av 1900-talet ansågs växten fredlöst och skulle utrotas under den så kallade berberislagen, då den är invasiv och bärare av svartrosten , en parasit som angriper sädesslag. </t>
+  </si>
+  <si>
+    <t>Näckrosor</t>
+  </si>
+  <si>
+    <t>Nymphaeaceae</t>
+  </si>
+  <si>
+    <t>Näckrosväxter (Nymphaeaceae) är en växtfamilj där plantorna växer i stillastående eller långsamt strömmande sötvatten. Roten är giftig men har ändå använts historiskt. Den har malts till mjöl och slammats flera gånger för att få bort gifterna. Undvik.</t>
   </si>
 </sst>
 </file>
@@ -2047,13 +2179,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2409,11 +2542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S127"/>
+  <dimension ref="A1:S141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C113" sqref="C113"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2424,6 +2557,7 @@
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="13" max="13" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="14.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3817,8 +3951,8 @@
       <c r="E64">
         <v>2</v>
       </c>
-      <c r="O64">
-        <v>1</v>
+      <c r="O64" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
@@ -5181,6 +5315,301 @@
       </c>
       <c r="R127">
         <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" t="s">
+        <v>403</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" t="s">
+        <v>404</v>
+      </c>
+      <c r="C129" t="s">
+        <v>401</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>406</v>
+      </c>
+      <c r="B130" t="s">
+        <v>407</v>
+      </c>
+      <c r="C130" t="s">
+        <v>405</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>409</v>
+      </c>
+      <c r="B131" t="s">
+        <v>408</v>
+      </c>
+      <c r="C131" t="s">
+        <v>410</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>1</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>413</v>
+      </c>
+      <c r="B132" t="s">
+        <v>412</v>
+      </c>
+      <c r="C132" t="s">
+        <v>411</v>
+      </c>
+      <c r="D132">
+        <v>2</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>417</v>
+      </c>
+      <c r="B133" t="s">
+        <v>414</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>421</v>
+      </c>
+      <c r="B134" t="s">
+        <v>420</v>
+      </c>
+      <c r="C134" t="s">
+        <v>419</v>
+      </c>
+      <c r="D134">
+        <v>2</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>422</v>
+      </c>
+      <c r="B135" t="s">
+        <v>423</v>
+      </c>
+      <c r="C135" t="s">
+        <v>424</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>426</v>
+      </c>
+      <c r="B136" t="s">
+        <v>427</v>
+      </c>
+      <c r="C136" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>428</v>
+      </c>
+      <c r="B137" t="s">
+        <v>429</v>
+      </c>
+      <c r="C137" t="s">
+        <v>436</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>432</v>
+      </c>
+      <c r="B138" t="s">
+        <v>431</v>
+      </c>
+      <c r="C138" t="s">
+        <v>430</v>
+      </c>
+      <c r="D138">
+        <v>2</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>433</v>
+      </c>
+      <c r="B139" t="s">
+        <v>434</v>
+      </c>
+      <c r="C139" t="s">
+        <v>435</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>438</v>
+      </c>
+      <c r="B140" t="s">
+        <v>437</v>
+      </c>
+      <c r="C140" t="s">
+        <v>439</v>
+      </c>
+      <c r="D140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="P140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>441</v>
+      </c>
+      <c r="B141" t="s">
+        <v>440</v>
+      </c>
+      <c r="C141" t="s">
+        <v>442</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5193,8 +5622,11 @@
     <hyperlink ref="C94" r:id="rId2" location="Förklara_sammanhanget" tooltip="Wikipedia:Inledning och sammanhang" display="https://sv.wikipedia.org/wiki/Wikipedia:Inledning_och_sammanhang - Förklara_sammanhanget" xr:uid="{73307867-6B81-4F73-B236-36C8832E5A5D}"/>
     <hyperlink ref="C95" r:id="rId3" tooltip="Luftförorening" display="https://sv.wikipedia.org/wiki/Luftf%C3%B6rorening" xr:uid="{A972A4F6-1CD6-4FB0-814B-16AE61A337C7}"/>
     <hyperlink ref="C127" r:id="rId4" tooltip="Buske" display="https://sv.wikipedia.org/wiki/Buske" xr:uid="{D2FA3C8A-A4DD-47BF-A488-3E13AA0B3D01}"/>
+    <hyperlink ref="C129" r:id="rId5" tooltip="Ogräs" display="https://sv.wikipedia.org/wiki/Ogr%C3%A4s" xr:uid="{60632165-9332-412F-8615-1B69BD3C2F64}"/>
+    <hyperlink ref="C131" r:id="rId6" display="https://sv.wikipedia.org/wiki/Korsblommiga_v%C3%A4xter" xr:uid="{06A93DC0-DA1D-47C6-ADD7-87CF227E25E1}"/>
+    <hyperlink ref="C141" r:id="rId7" tooltip="Familj (biologi)" display="https://sv.wikipedia.org/wiki/Familj_(biologi)" xr:uid="{09B4B8BD-676A-466F-92F7-EFDF3730B0F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3169BDB7-45B8-4D2E-A7E1-233D0CB8C196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC365E3-8B16-486B-8BD5-330D91C54317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
   <si>
     <t>Latin Name</t>
   </si>
@@ -1668,6 +1668,291 @@
   </si>
   <si>
     <t>Näckrosväxter (Nymphaeaceae) är en växtfamilj där plantorna växer i stillastående eller långsamt strömmande sötvatten. Roten är giftig men har ändå använts historiskt. Den har malts till mjöl och slammats flera gånger för att få bort gifterna. Undvik.</t>
+  </si>
+  <si>
+    <t>Ek</t>
+  </si>
+  <si>
+    <t>Ek (Quercus robur) kallas även skogsek, vanlig ek, sommarek och stjälkek (ekollonen sitter på 2 — 5 cm långa stjälkar). Ek är ett kraftigt lövträd som tillhör familjen bokväxter. Ekollon innehåller mycket garvsyra men kan ätas efter att de kokas flera gånger och vattnet byts ut. Ollonen kan rostas och användas som kaffesurrogat. Ekblad kan användas för växtfärgning till en gråaktig nyans. Enligt gammal lag så ingår inte ekollonen i allemansrätten och du behöver egentligen markägarens tillstånd för att plocka dem.</t>
+  </si>
+  <si>
+    <t>Quercus robur</t>
+  </si>
+  <si>
+    <t>Hassel</t>
+  </si>
+  <si>
+    <t>Corylus avellana</t>
+  </si>
+  <si>
+    <r>
+      <t>Hasseln (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Corylus avellana</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är ibland, särskilt i tät skog, ett litet träd av 5–8 meters höjd, men blir gärna en yvig buske genom de talrika skotten från rothalsen. Nöten är mycket energirik och innehåller stärkelse, kolhydrater och ca 60% fett. Förr pressades oljan ur nötterna och användas som matolja, lysolja såpa mm. Den växer framförallt i den södra halvan av landet.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pors</t>
+  </si>
+  <si>
+    <t>Myrica gale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pors (Myrica gale) är en låg buske i familjen porsväxter som blir 50–150 cm hög och har en stark, aromatisk doft. Pors har använts bland annat som smaksättare i bland annat öl och vin, mot myggor och andra skadeinsekter, som parfym, vid garvning, och vid färgning av ull. Den har inte direkt används som föda utan framförallt som smaksättare. Pors kan orsaka missfall, så gravida kvinnor bör undvika växten. </t>
+  </si>
+  <si>
+    <t>Ramslök</t>
+  </si>
+  <si>
+    <t>Allium ursinum</t>
+  </si>
+  <si>
+    <r>
+      <t>Ramslök (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allium ursinum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">) är en ganska sällsynt växtart, som finns på lövängar och i lundar. I Sverige har den ungefär samma utbredning norrut som eken (Gästrikland). Den har en stark smak som påminner om vitlök, men till skillnad från vitlöken är det de gröna bladen som används. Tack vare detta går ramslök i folkmun ofta under benämningen "skogsvitlök". Ramslöken är känslig för värme och bör inte upphettas, eftersom dess smak- och näringsämnen då går förlorade. </t>
+    </r>
+  </si>
+  <si>
+    <t>Gräslök</t>
+  </si>
+  <si>
+    <t>Allium schoenoprasum</t>
+  </si>
+  <si>
+    <t>Gräslök (Allium schoenoprasum L.) är en flerårig ört i släktet lökar och familjen amaryllisväxter. Arten förekommer över hela norra halvklotet och är en populär och välkänd kryddväxt. Många odlar denna i sin trädgård, men den förekommer även vild. Särskilt i skärgården. Gräslöken är ingen egentlig lök utan bildar revor med täta bestånd.</t>
+  </si>
+  <si>
+    <t>Allium scorodoprasum</t>
+  </si>
+  <si>
+    <t>Skogslök</t>
+  </si>
+  <si>
+    <r>
+      <t>Skogslök (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Allium scorodoprasum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) är en flerårig växtart i familjen amaryllisväxter. Den är ätbar, men sällsynt odlad. Roten/Löken används som vanlig lök. Bladen kan hackas som krydda i en sallad.</t>
+    </r>
+  </si>
+  <si>
+    <t>Vårlök</t>
+  </si>
+  <si>
+    <t>Gagea lutea</t>
+  </si>
+  <si>
+    <t>Getrams</t>
+  </si>
+  <si>
+    <t>Polygonatum odoratum</t>
+  </si>
+  <si>
+    <t>Med vårlök avses vanligen allmän vårlök, Gagea lutea (L.) Ker-Gawl., men ibland även den närbesläktade dvärgvårlöken (Gagea minima). Den vanliga vårlöken är flerårig och en av Nordens allmännaste liljeväxter. Löken används som vanlig lök. Historiskt ska löken ha torkats och används som mjöl.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Getrams, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Polygonatum odoratum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (Mill.,  Druce), är en mångformig ört i familjen sparrisväxter (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Asparagaceae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Den kan är även känd som kung Salomos sigill. Alla delar ovan jord hos getrams är giftiga däremot förekommer inte giftet i roten vilken därför anses ätlig. Rotstocken kan skalas och kokas tills den mjuknar. Förväxla ej med liljekonvalj.</t>
+    </r>
+  </si>
+  <si>
+    <t>Blåbär</t>
+  </si>
+  <si>
+    <t>Vaccinium myrtillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blåbär (Vaccinium myrtillus L) är ett flerårigt ris med ätbara bär som är vanliga i det nordiska köket. Blåbär är populära att ätas direkt utan tillagning, eller användas till exempelvis sylt, paj, saft, marmelad, kräm, tesurrogat, blåbärsvin och soppa. Färska blåbär har kort hållbarhet, men i frystorkad form är hållbarheten mycket god. Det går också att plocka bladen från riset och torka för att sedan använda som te, bäst är att plocka bladen under våren. Blåbärsblad kan enligt folkmedicinen användas som örtte som ska vara bra mot diarré och magbesvär. Blåbären innehåller mycket antioxidanter men har ett ganska lågt energiinnehåll. </t>
+  </si>
+  <si>
+    <t>Mjölon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mjölon (Arctostaphylos uva-ursi) är en art i familjen ljungväxter. Den förekommer i hela Norden. Bäret liknar lingonet men bäret hos mjölon har en navel. Namnet kommer troligen av att de historiskt har torkats och malts till mjöl. Bären har kokats till sirap och använts som sötningsmedel. Bladen innehåller mycket garvsyra och har använtsvid garvning av djurhudar. De kan också användas till växtfärgning och ger då en gul nyans. </t>
+  </si>
+  <si>
+    <t>Arctostaphylos uva-ursi</t>
+  </si>
+  <si>
+    <t>Skvattram</t>
+  </si>
+  <si>
+    <t>Rhododendron tomentosum</t>
+  </si>
+  <si>
+    <t>Skvattram, regionalt getpors, (Rhododendron tomentosum) är en art i det stora och variabla släktet Rhododendron i familjen ljungväxter. Skvattram har använts som ersättning för pors och humle som krydda vid ölbryggning men i större mängd är skvattram giftig. Skvattram används inom växtfärgning och ger då en gul, relativt ljushärdig färg. Tack vare innehållet av garvämnen i växten används den även för färgning av lin. Det sägs att man kan hålla mygg borta genom att gnida in sig med skvattram. Växten har också använts som malmedel. Några av de alternativa namnen nedan antyder en förmodad effekt mot löss.</t>
+  </si>
+  <si>
+    <t>Svartkämpar</t>
+  </si>
+  <si>
+    <t>Rödkämpar</t>
+  </si>
+  <si>
+    <t>Plantago lanceolata</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rödkämpar (Plantago media) är en växtart i familjen grobladsväxter. Den är större än svartkämpar och groblad. Kämpar ska ha fått sitt namn från att barn förr leksamt "slogs" med dem. Den som genom det först lyckades skilja axet från skaftet vann. Frön har använts som laxermedel. </t>
+  </si>
+  <si>
+    <t>Plantago media</t>
+  </si>
+  <si>
+    <r>
+      <t>Svartkämpar,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Plantago lanceolata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L. är en flerårig ört.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Den liknar grobladet men har mycket smalare blad. Ungla blad kan likt grobladet ätas som sallad eller användas som te.</t>
+    </r>
+  </si>
+  <si>
+    <t>Groblad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groblad eller gårdsgroblad (Plantago major) är en art i familjen grobladssläktet och ett vanligt ogräs i hela Sverige, på vägkanter och gångstigar. Den har haft vid spridning inom folkmedicinen som omslag (plåster) på sår. När bladen är unga kan de ätas råa som sallad eller spenat. Smaken kan dock vara en aning bitter. </t>
+  </si>
+  <si>
+    <t>Plantago major</t>
+  </si>
+  <si>
+    <t>Sårläkande</t>
   </si>
 </sst>
 </file>
@@ -2542,11 +2827,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S141"/>
+  <dimension ref="A1:S155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4992,9 +5277,6 @@
       <c r="M112">
         <v>1</v>
       </c>
-      <c r="P112">
-        <v>1</v>
-      </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -5610,6 +5892,274 @@
       </c>
       <c r="M141">
         <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>445</v>
+      </c>
+      <c r="B142" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" t="s">
+        <v>444</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="P142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>447</v>
+      </c>
+      <c r="B143" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" t="s">
+        <v>448</v>
+      </c>
+      <c r="D143">
+        <v>2</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="P143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>450</v>
+      </c>
+      <c r="B144" t="s">
+        <v>449</v>
+      </c>
+      <c r="C144" t="s">
+        <v>451</v>
+      </c>
+      <c r="D144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>453</v>
+      </c>
+      <c r="B145" t="s">
+        <v>452</v>
+      </c>
+      <c r="C145" t="s">
+        <v>454</v>
+      </c>
+      <c r="D145">
+        <v>2</v>
+      </c>
+      <c r="F145">
+        <v>1</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>456</v>
+      </c>
+      <c r="B146" t="s">
+        <v>455</v>
+      </c>
+      <c r="C146" t="s">
+        <v>457</v>
+      </c>
+      <c r="D146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>458</v>
+      </c>
+      <c r="B147" t="s">
+        <v>459</v>
+      </c>
+      <c r="C147" t="s">
+        <v>460</v>
+      </c>
+      <c r="D147">
+        <v>2</v>
+      </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>462</v>
+      </c>
+      <c r="B148" t="s">
+        <v>461</v>
+      </c>
+      <c r="C148" t="s">
+        <v>465</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>464</v>
+      </c>
+      <c r="B149" t="s">
+        <v>463</v>
+      </c>
+      <c r="C149" t="s">
+        <v>466</v>
+      </c>
+      <c r="D149">
+        <v>2</v>
+      </c>
+      <c r="E149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>468</v>
+      </c>
+      <c r="B150" t="s">
+        <v>467</v>
+      </c>
+      <c r="C150" t="s">
+        <v>469</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B151" t="s">
+        <v>470</v>
+      </c>
+      <c r="C151" t="s">
+        <v>471</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>474</v>
+      </c>
+      <c r="B152" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" t="s">
+        <v>475</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="M152">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>478</v>
+      </c>
+      <c r="B153" t="s">
+        <v>476</v>
+      </c>
+      <c r="C153" t="s">
+        <v>481</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>480</v>
+      </c>
+      <c r="B154" t="s">
+        <v>477</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>484</v>
+      </c>
+      <c r="B155" t="s">
+        <v>482</v>
+      </c>
+      <c r="C155" t="s">
+        <v>483</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Plants.xlsx
+++ b/Assets/Data/Plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Unity Projects\GitHub\Edible Plants\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC365E3-8B16-486B-8BD5-330D91C54317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B467FED-D41A-4948-86E0-B527468A69E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="489">
   <si>
     <t>Latin Name</t>
   </si>
@@ -1953,6 +1953,38 @@
   </si>
   <si>
     <t>Sårläkande</t>
+  </si>
+  <si>
+    <t>Veronica beccabunga</t>
+  </si>
+  <si>
+    <t>Bäckveronika</t>
+  </si>
+  <si>
+    <r>
+      <t>Bäckveronika (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Veronica beccabunga</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), även bäckgröna, är en växtart i familjen grobladsväxter. Växtens täta skott övervintrar gröna under snön, och man har förr använt dem under vintern och våren som ersättning för kål eller sallat.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2827,11 +2859,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S155"/>
+  <dimension ref="A1:S156"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
+      <selection pane="bottomLeft" activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6160,6 +6192,26 @@
       </c>
       <c r="Q155" t="s">
         <v>485</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>486</v>
+      </c>
+      <c r="B156" t="s">
+        <v>487</v>
+      </c>
+      <c r="C156" t="s">
+        <v>488</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
